--- a/Stocks/NVDA.xlsx
+++ b/Stocks/NVDA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://academiafaedupt-my.sharepoint.com/personal/sbclemente_academiafa_edu_pt/Documents/Gigs/Financials/STOCKS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://academiafaedupt-my.sharepoint.com/personal/sbclemente_academiafa_edu_pt/Documents/Gigs/WorkingFolder/Finance/Stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="183" documentId="13_ncr:1_{F577B6F0-892C-4F50-9419-1EE04536669B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1FE7B167-B230-4FF9-B1A3-A2E5B7770E82}"/>
+  <xr:revisionPtr revIDLastSave="188" documentId="13_ncr:1_{F577B6F0-892C-4F50-9419-1EE04536669B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2EA33C0A-FB38-4050-AFB8-6C0E7CEDBD0C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6015" yWindow="1275" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -562,10 +562,6 @@
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1847,13 +1843,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AM1002"/>
+  <dimension ref="A1:BE1002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O11" sqref="O11"/>
+      <selection pane="bottomRight" activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1863,10 +1859,10 @@
     <col min="12" max="13" width="11.25" customWidth="1"/>
     <col min="14" max="14" width="11.375" customWidth="1"/>
     <col min="15" max="15" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="16" max="39" width="8.625" customWidth="1"/>
+    <col min="16" max="27" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="5" t="s">
         <v>8</v>
       </c>
@@ -1911,7 +1907,7 @@
         <v>2022</v>
       </c>
       <c r="S1" s="6">
-        <f t="shared" ref="S1:AM1" si="0">+R1+1</f>
+        <f t="shared" ref="S1:AA1" si="0">+R1+1</f>
         <v>2023</v>
       </c>
       <c r="T1" s="6">
@@ -1946,56 +1942,8 @@
         <f t="shared" si="0"/>
         <v>2031</v>
       </c>
-      <c r="AB1" s="6">
-        <f t="shared" si="0"/>
-        <v>2032</v>
-      </c>
-      <c r="AC1" s="6">
-        <f t="shared" si="0"/>
-        <v>2033</v>
-      </c>
-      <c r="AD1" s="6">
-        <f t="shared" si="0"/>
-        <v>2034</v>
-      </c>
-      <c r="AE1" s="6">
-        <f t="shared" si="0"/>
-        <v>2035</v>
-      </c>
-      <c r="AF1" s="6">
-        <f t="shared" si="0"/>
-        <v>2036</v>
-      </c>
-      <c r="AG1" s="6">
-        <f t="shared" si="0"/>
-        <v>2037</v>
-      </c>
-      <c r="AH1" s="6">
-        <f t="shared" si="0"/>
-        <v>2038</v>
-      </c>
-      <c r="AI1" s="6">
-        <f t="shared" si="0"/>
-        <v>2039</v>
-      </c>
-      <c r="AJ1" s="6">
-        <f t="shared" si="0"/>
-        <v>2040</v>
-      </c>
-      <c r="AK1" s="6">
-        <f t="shared" si="0"/>
-        <v>2041</v>
-      </c>
-      <c r="AL1" s="6">
-        <f t="shared" si="0"/>
-        <v>2042</v>
-      </c>
-      <c r="AM1" s="6">
-        <f t="shared" si="0"/>
-        <v>2043</v>
-      </c>
-    </row>
-    <row r="2" spans="1:39" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -2048,7 +1996,7 @@
         <v>60922</v>
       </c>
       <c r="T2" s="4">
-        <f t="shared" ref="T2:AM2" si="3">+S2*(1-$O$4)</f>
+        <f t="shared" ref="T2:AA2" si="3">+S2*(1-$O$4)</f>
         <v>67014.200000000012</v>
       </c>
       <c r="U2" s="4">
@@ -2079,56 +2027,8 @@
         <f t="shared" si="3"/>
         <v>130591.7174828201</v>
       </c>
-      <c r="AB2" s="4">
-        <f t="shared" si="3"/>
-        <v>143650.8892311021</v>
-      </c>
-      <c r="AC2" s="4">
-        <f t="shared" si="3"/>
-        <v>158015.97815421232</v>
-      </c>
-      <c r="AD2" s="4">
-        <f t="shared" si="3"/>
-        <v>173817.57596963356</v>
-      </c>
-      <c r="AE2" s="4">
-        <f t="shared" si="3"/>
-        <v>191199.33356659694</v>
-      </c>
-      <c r="AF2" s="4">
-        <f t="shared" si="3"/>
-        <v>210319.26692325665</v>
-      </c>
-      <c r="AG2" s="4">
-        <f t="shared" si="3"/>
-        <v>231351.19361558234</v>
-      </c>
-      <c r="AH2" s="4">
-        <f t="shared" si="3"/>
-        <v>254486.31297714059</v>
-      </c>
-      <c r="AI2" s="4">
-        <f t="shared" si="3"/>
-        <v>279934.94427485467</v>
-      </c>
-      <c r="AJ2" s="4">
-        <f t="shared" si="3"/>
-        <v>307928.43870234018</v>
-      </c>
-      <c r="AK2" s="4">
-        <f t="shared" si="3"/>
-        <v>338721.28257257422</v>
-      </c>
-      <c r="AL2" s="4">
-        <f t="shared" si="3"/>
-        <v>372593.41082983167</v>
-      </c>
-      <c r="AM2" s="4">
-        <f t="shared" si="3"/>
-        <v>409852.75191281486</v>
-      </c>
-    </row>
-    <row r="3" spans="1:39" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
@@ -2187,7 +2087,7 @@
         <v>17950.68</v>
       </c>
       <c r="U3" s="5">
-        <f t="shared" ref="U3:AM3" si="4">+T3*1.08</f>
+        <f t="shared" ref="U3:AA3" si="4">+T3*1.08</f>
         <v>19386.734400000001</v>
       </c>
       <c r="V3" s="5">
@@ -2214,56 +2114,8 @@
         <f t="shared" si="4"/>
         <v>30764.311025095172</v>
       </c>
-      <c r="AB3" s="5">
-        <f t="shared" si="4"/>
-        <v>33225.455907102791</v>
-      </c>
-      <c r="AC3" s="5">
-        <f t="shared" si="4"/>
-        <v>35883.492379671014</v>
-      </c>
-      <c r="AD3" s="5">
-        <f t="shared" si="4"/>
-        <v>38754.171770044697</v>
-      </c>
-      <c r="AE3" s="5">
-        <f t="shared" si="4"/>
-        <v>41854.505511648276</v>
-      </c>
-      <c r="AF3" s="5">
-        <f t="shared" si="4"/>
-        <v>45202.865952580141</v>
-      </c>
-      <c r="AG3" s="5">
-        <f t="shared" si="4"/>
-        <v>48819.095228786558</v>
-      </c>
-      <c r="AH3" s="5">
-        <f t="shared" si="4"/>
-        <v>52724.622847089486</v>
-      </c>
-      <c r="AI3" s="5">
-        <f t="shared" si="4"/>
-        <v>56942.592674856649</v>
-      </c>
-      <c r="AJ3" s="5">
-        <f t="shared" si="4"/>
-        <v>61498.000088845183</v>
-      </c>
-      <c r="AK3" s="5">
-        <f t="shared" si="4"/>
-        <v>66417.840095952808</v>
-      </c>
-      <c r="AL3" s="5">
-        <f t="shared" si="4"/>
-        <v>71731.267303629036</v>
-      </c>
-      <c r="AM3" s="5">
-        <f t="shared" si="4"/>
-        <v>77469.768687919364</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -2333,7 +2185,7 @@
         <v>49063.520000000011</v>
       </c>
       <c r="U4" s="4">
-        <f t="shared" ref="U4:AM4" si="7">+U2-U3</f>
+        <f t="shared" ref="U4:AA4" si="7">+U2-U3</f>
         <v>54328.885600000023</v>
       </c>
       <c r="V4" s="4">
@@ -2360,56 +2212,8 @@
         <f t="shared" si="7"/>
         <v>99827.406457724923</v>
       </c>
-      <c r="AB4" s="4">
-        <f t="shared" si="7"/>
-        <v>110425.43332399931</v>
-      </c>
-      <c r="AC4" s="4">
-        <f t="shared" si="7"/>
-        <v>122132.4857745413</v>
-      </c>
-      <c r="AD4" s="4">
-        <f t="shared" si="7"/>
-        <v>135063.40419958887</v>
-      </c>
-      <c r="AE4" s="4">
-        <f t="shared" si="7"/>
-        <v>149344.82805494865</v>
-      </c>
-      <c r="AF4" s="4">
-        <f t="shared" si="7"/>
-        <v>165116.40097067651</v>
-      </c>
-      <c r="AG4" s="4">
-        <f t="shared" si="7"/>
-        <v>182532.09838679578</v>
-      </c>
-      <c r="AH4" s="4">
-        <f t="shared" si="7"/>
-        <v>201761.69013005111</v>
-      </c>
-      <c r="AI4" s="4">
-        <f t="shared" si="7"/>
-        <v>222992.35159999802</v>
-      </c>
-      <c r="AJ4" s="4">
-        <f t="shared" si="7"/>
-        <v>246430.438613495</v>
-      </c>
-      <c r="AK4" s="4">
-        <f t="shared" si="7"/>
-        <v>272303.44247662142</v>
-      </c>
-      <c r="AL4" s="4">
-        <f t="shared" si="7"/>
-        <v>300862.14352620265</v>
-      </c>
-      <c r="AM4" s="4">
-        <f t="shared" si="7"/>
-        <v>332382.98322489549</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
@@ -2468,7 +2272,7 @@
         <v>9367.92</v>
       </c>
       <c r="U5" s="5">
-        <f t="shared" ref="U5:AM5" si="10">+T5*1.08</f>
+        <f t="shared" ref="U5:AA5" si="10">+T5*1.08</f>
         <v>10117.3536</v>
       </c>
       <c r="V5" s="5">
@@ -2495,56 +2299,8 @@
         <f t="shared" si="10"/>
         <v>16054.968643985048</v>
       </c>
-      <c r="AB5" s="5">
-        <f t="shared" si="10"/>
-        <v>17339.366135503853</v>
-      </c>
-      <c r="AC5" s="5">
-        <f t="shared" si="10"/>
-        <v>18726.515426344162</v>
-      </c>
-      <c r="AD5" s="5">
-        <f t="shared" si="10"/>
-        <v>20224.636660451695</v>
-      </c>
-      <c r="AE5" s="5">
-        <f t="shared" si="10"/>
-        <v>21842.607593287834</v>
-      </c>
-      <c r="AF5" s="5">
-        <f t="shared" si="10"/>
-        <v>23590.016200750862</v>
-      </c>
-      <c r="AG5" s="5">
-        <f t="shared" si="10"/>
-        <v>25477.217496810932</v>
-      </c>
-      <c r="AH5" s="5">
-        <f t="shared" si="10"/>
-        <v>27515.394896555808</v>
-      </c>
-      <c r="AI5" s="5">
-        <f t="shared" si="10"/>
-        <v>29716.626488280275</v>
-      </c>
-      <c r="AJ5" s="5">
-        <f t="shared" si="10"/>
-        <v>32093.956607342698</v>
-      </c>
-      <c r="AK5" s="5">
-        <f t="shared" si="10"/>
-        <v>34661.473135930115</v>
-      </c>
-      <c r="AL5" s="5">
-        <f t="shared" si="10"/>
-        <v>37434.390986804523</v>
-      </c>
-      <c r="AM5" s="5">
-        <f t="shared" si="10"/>
-        <v>40429.142265748887</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
@@ -2586,8 +2342,8 @@
         <v>27</v>
       </c>
       <c r="O6" s="9">
-        <f t="array" ref="O6">NPV(O5,R13:AM13)</f>
-        <v>804823.12261500116</v>
+        <f>+NPV(O5,U13:BE13)</f>
+        <v>727786.98397850525</v>
       </c>
       <c r="P6" s="9"/>
       <c r="Q6" s="5" t="s">
@@ -2606,7 +2362,7 @@
         <v>2787.75</v>
       </c>
       <c r="U6" s="5">
-        <f t="shared" ref="U6:AM6" si="11">+T6*1.05</f>
+        <f t="shared" ref="U6:AA6" si="11">+T6*1.05</f>
         <v>2927.1375000000003</v>
       </c>
       <c r="V6" s="5">
@@ -2633,56 +2389,8 @@
         <f t="shared" si="11"/>
         <v>3922.6442032599616</v>
       </c>
-      <c r="AB6" s="5">
-        <f t="shared" si="11"/>
-        <v>4118.7764134229601</v>
-      </c>
-      <c r="AC6" s="5">
-        <f t="shared" si="11"/>
-        <v>4324.7152340941084</v>
-      </c>
-      <c r="AD6" s="5">
-        <f t="shared" si="11"/>
-        <v>4540.9509957988139</v>
-      </c>
-      <c r="AE6" s="5">
-        <f t="shared" si="11"/>
-        <v>4767.9985455887545</v>
-      </c>
-      <c r="AF6" s="5">
-        <f t="shared" si="11"/>
-        <v>5006.3984728681926</v>
-      </c>
-      <c r="AG6" s="5">
-        <f t="shared" si="11"/>
-        <v>5256.7183965116028</v>
-      </c>
-      <c r="AH6" s="5">
-        <f t="shared" si="11"/>
-        <v>5519.5543163371831</v>
-      </c>
-      <c r="AI6" s="5">
-        <f t="shared" si="11"/>
-        <v>5795.5320321540421</v>
-      </c>
-      <c r="AJ6" s="5">
-        <f t="shared" si="11"/>
-        <v>6085.3086337617442</v>
-      </c>
-      <c r="AK6" s="5">
-        <f t="shared" si="11"/>
-        <v>6389.5740654498313</v>
-      </c>
-      <c r="AL6" s="5">
-        <f t="shared" si="11"/>
-        <v>6709.052768722323</v>
-      </c>
-      <c r="AM6" s="5">
-        <f t="shared" si="11"/>
-        <v>7044.5054071584391</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>28</v>
       </c>
@@ -2738,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5">
-        <f t="shared" ref="T7:AM7" si="12">+S7</f>
+        <f t="shared" ref="T7:AA7" si="12">+S7</f>
         <v>0</v>
       </c>
       <c r="U7" s="5">
@@ -2769,56 +2477,8 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AB7" s="5">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AC7" s="5">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AD7" s="5">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AE7" s="5">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AF7" s="5">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AG7" s="5">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AH7" s="5">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AI7" s="5">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="5">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AK7" s="5">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AL7" s="5">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AM7" s="5">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>30</v>
       </c>
@@ -2871,12 +2531,12 @@
       </c>
       <c r="O8" s="10">
         <f>+O6+O7</f>
-        <v>823585.12261500116</v>
+        <v>746548.98397850525</v>
       </c>
       <c r="P8" s="10"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="5">
-        <f t="shared" ref="R8:AM8" si="14">+R5+R6+R7</f>
+        <f t="shared" ref="R8:AA8" si="14">+R5+R6+R7</f>
         <v>11131</v>
       </c>
       <c r="S8" s="5">
@@ -2915,56 +2575,8 @@
         <f t="shared" si="14"/>
         <v>19977.612847245011</v>
       </c>
-      <c r="AB8" s="5">
-        <f t="shared" si="14"/>
-        <v>21458.142548926815</v>
-      </c>
-      <c r="AC8" s="5">
-        <f t="shared" si="14"/>
-        <v>23051.230660438268</v>
-      </c>
-      <c r="AD8" s="5">
-        <f t="shared" si="14"/>
-        <v>24765.587656250507</v>
-      </c>
-      <c r="AE8" s="5">
-        <f t="shared" si="14"/>
-        <v>26610.606138876588</v>
-      </c>
-      <c r="AF8" s="5">
-        <f t="shared" si="14"/>
-        <v>28596.414673619056</v>
-      </c>
-      <c r="AG8" s="5">
-        <f t="shared" si="14"/>
-        <v>30733.935893322534</v>
-      </c>
-      <c r="AH8" s="5">
-        <f t="shared" si="14"/>
-        <v>33034.949212892992</v>
-      </c>
-      <c r="AI8" s="5">
-        <f t="shared" si="14"/>
-        <v>35512.158520434314</v>
-      </c>
-      <c r="AJ8" s="5">
-        <f t="shared" si="14"/>
-        <v>38179.26524110444</v>
-      </c>
-      <c r="AK8" s="5">
-        <f t="shared" si="14"/>
-        <v>41051.047201379944</v>
-      </c>
-      <c r="AL8" s="5">
-        <f t="shared" si="14"/>
-        <v>44143.443755526845</v>
-      </c>
-      <c r="AM8" s="5">
-        <f t="shared" si="14"/>
-        <v>47473.647672907326</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
@@ -3018,14 +2630,14 @@
       </c>
       <c r="O9" s="11">
         <f>+O8/main!M6</f>
-        <v>334.7907002500005</v>
+        <v>303.47519673922977</v>
       </c>
       <c r="P9" s="11"/>
       <c r="Q9" s="4" t="s">
         <v>4</v>
       </c>
       <c r="R9" s="4">
-        <f t="shared" ref="R9:AM9" si="17">+R4-R8</f>
+        <f t="shared" ref="R9:AA9" si="17">+R4-R8</f>
         <v>4225</v>
       </c>
       <c r="S9" s="4">
@@ -3064,56 +2676,8 @@
         <f t="shared" si="17"/>
         <v>79849.793610479916</v>
       </c>
-      <c r="AB9" s="4">
-        <f t="shared" si="17"/>
-        <v>88967.290775072499</v>
-      </c>
-      <c r="AC9" s="4">
-        <f t="shared" si="17"/>
-        <v>99081.255114103027</v>
-      </c>
-      <c r="AD9" s="4">
-        <f t="shared" si="17"/>
-        <v>110297.81654333835</v>
-      </c>
-      <c r="AE9" s="4">
-        <f t="shared" si="17"/>
-        <v>122734.22191607207</v>
-      </c>
-      <c r="AF9" s="4">
-        <f t="shared" si="17"/>
-        <v>136519.98629705745</v>
-      </c>
-      <c r="AG9" s="4">
-        <f t="shared" si="17"/>
-        <v>151798.16249347324</v>
-      </c>
-      <c r="AH9" s="4">
-        <f t="shared" si="17"/>
-        <v>168726.74091715811</v>
-      </c>
-      <c r="AI9" s="4">
-        <f t="shared" si="17"/>
-        <v>187480.1930795637</v>
-      </c>
-      <c r="AJ9" s="4">
-        <f t="shared" si="17"/>
-        <v>208251.17337239056</v>
-      </c>
-      <c r="AK9" s="4">
-        <f t="shared" si="17"/>
-        <v>231252.39527524146</v>
-      </c>
-      <c r="AL9" s="4">
-        <f t="shared" si="17"/>
-        <v>256718.6997706758</v>
-      </c>
-      <c r="AM9" s="4">
-        <f t="shared" si="17"/>
-        <v>284909.33555198816</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>34</v>
       </c>
@@ -3186,7 +2750,7 @@
         <v>162.75</v>
       </c>
       <c r="U10" s="5">
-        <f t="shared" ref="U10:AM10" si="18">+T27*$O$3</f>
+        <f t="shared" ref="U10:AA10" si="18">+T27*$O$3</f>
         <v>481.55716000000018</v>
       </c>
       <c r="V10" s="5">
@@ -3213,56 +2777,8 @@
         <f t="shared" si="18"/>
         <v>3419.8808376627799</v>
       </c>
-      <c r="AB10" s="5">
-        <f t="shared" si="18"/>
-        <v>4136.0000379168077</v>
-      </c>
-      <c r="AC10" s="5">
-        <f t="shared" si="18"/>
-        <v>4936.6883389085151</v>
-      </c>
-      <c r="AD10" s="5">
-        <f t="shared" si="18"/>
-        <v>5831.2426526044146</v>
-      </c>
-      <c r="AE10" s="5">
-        <f t="shared" si="18"/>
-        <v>6829.9525616895226</v>
-      </c>
-      <c r="AF10" s="5">
-        <f t="shared" si="18"/>
-        <v>7944.2044621982723</v>
-      </c>
-      <c r="AG10" s="5">
-        <f t="shared" si="18"/>
-        <v>9186.5965027278708</v>
-      </c>
-      <c r="AH10" s="5">
-        <f t="shared" si="18"/>
-        <v>10571.065430095201</v>
-      </c>
-      <c r="AI10" s="5">
-        <f t="shared" si="18"/>
-        <v>12113.026564681579</v>
-      </c>
-      <c r="AJ10" s="5">
-        <f t="shared" si="18"/>
-        <v>13829.528253622088</v>
-      </c>
-      <c r="AK10" s="5">
-        <f t="shared" si="18"/>
-        <v>15739.422287605796</v>
-      </c>
-      <c r="AL10" s="5">
-        <f t="shared" si="18"/>
-        <v>17863.551918646284</v>
-      </c>
-      <c r="AM10" s="5">
-        <f t="shared" si="18"/>
-        <v>20224.959283174452</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>36</v>
       </c>
@@ -3316,7 +2832,7 @@
       </c>
       <c r="O11" s="8">
         <f>+O9/O10-1</f>
-        <v>1.5753130788461576</v>
+        <v>1.3344245903017673</v>
       </c>
       <c r="P11" s="8"/>
       <c r="Q11" s="5"/>
@@ -3333,7 +2849,7 @@
         <v>37070.600000000013</v>
       </c>
       <c r="U11" s="5">
-        <f t="shared" ref="U11:AM11" si="22">+U9+U10</f>
+        <f t="shared" ref="U11:AA11" si="22">+U9+U10</f>
         <v>41765.951660000021</v>
       </c>
       <c r="V11" s="5">
@@ -3360,56 +2876,8 @@
         <f t="shared" si="22"/>
         <v>83269.674448142701</v>
       </c>
-      <c r="AB11" s="5">
-        <f t="shared" si="22"/>
-        <v>93103.290812989304</v>
-      </c>
-      <c r="AC11" s="5">
-        <f t="shared" si="22"/>
-        <v>104017.94345301154</v>
-      </c>
-      <c r="AD11" s="5">
-        <f t="shared" si="22"/>
-        <v>116129.05919594277</v>
-      </c>
-      <c r="AE11" s="5">
-        <f t="shared" si="22"/>
-        <v>129564.1744777616</v>
-      </c>
-      <c r="AF11" s="5">
-        <f t="shared" si="22"/>
-        <v>144464.19075925573</v>
-      </c>
-      <c r="AG11" s="5">
-        <f t="shared" si="22"/>
-        <v>160984.7589962011</v>
-      </c>
-      <c r="AH11" s="5">
-        <f t="shared" si="22"/>
-        <v>179297.80634725332</v>
-      </c>
-      <c r="AI11" s="5">
-        <f t="shared" si="22"/>
-        <v>199593.21964424528</v>
-      </c>
-      <c r="AJ11" s="5">
-        <f t="shared" si="22"/>
-        <v>222080.70162601265</v>
-      </c>
-      <c r="AK11" s="5">
-        <f t="shared" si="22"/>
-        <v>246991.81756284725</v>
-      </c>
-      <c r="AL11" s="5">
-        <f t="shared" si="22"/>
-        <v>274582.25168932206</v>
-      </c>
-      <c r="AM11" s="5">
-        <f t="shared" si="22"/>
-        <v>305134.29483516258</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>38</v>
       </c>
@@ -3464,7 +2932,7 @@
         <v>5189.8840000000027</v>
       </c>
       <c r="U12" s="5">
-        <f t="shared" ref="U12:AM12" si="24">+U11*0.14</f>
+        <f t="shared" ref="U12:AA12" si="24">+U11*0.14</f>
         <v>5847.2332324000035</v>
       </c>
       <c r="V12" s="5">
@@ -3491,56 +2959,8 @@
         <f t="shared" si="24"/>
         <v>11657.754422739979</v>
       </c>
-      <c r="AB12" s="5">
-        <f t="shared" si="24"/>
-        <v>13034.460713818504</v>
-      </c>
-      <c r="AC12" s="5">
-        <f t="shared" si="24"/>
-        <v>14562.512083421618</v>
-      </c>
-      <c r="AD12" s="5">
-        <f t="shared" si="24"/>
-        <v>16258.06828743199</v>
-      </c>
-      <c r="AE12" s="5">
-        <f t="shared" si="24"/>
-        <v>18138.984426886625</v>
-      </c>
-      <c r="AF12" s="5">
-        <f t="shared" si="24"/>
-        <v>20224.986706295804</v>
-      </c>
-      <c r="AG12" s="5">
-        <f t="shared" si="24"/>
-        <v>22537.866259468155</v>
-      </c>
-      <c r="AH12" s="5">
-        <f t="shared" si="24"/>
-        <v>25101.692888615467</v>
-      </c>
-      <c r="AI12" s="5">
-        <f t="shared" si="24"/>
-        <v>27943.050750194343</v>
-      </c>
-      <c r="AJ12" s="5">
-        <f t="shared" si="24"/>
-        <v>31091.298227641775</v>
-      </c>
-      <c r="AK12" s="5">
-        <f t="shared" si="24"/>
-        <v>34578.854458798618</v>
-      </c>
-      <c r="AL12" s="5">
-        <f t="shared" si="24"/>
-        <v>38441.515236505089</v>
-      </c>
-      <c r="AM12" s="5">
-        <f t="shared" si="24"/>
-        <v>42718.801276922764</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>39</v>
       </c>
@@ -3607,7 +3027,7 @@
         <v>31880.716000000011</v>
       </c>
       <c r="U13" s="4">
-        <f t="shared" ref="U13:AM13" si="27">+U11-U12</f>
+        <f t="shared" ref="U13:AA13" si="27">+U11-U12</f>
         <v>35918.718427600019</v>
       </c>
       <c r="V13" s="4">
@@ -3635,100 +3055,172 @@
         <v>71611.920025402724</v>
       </c>
       <c r="AB13" s="4">
-        <f t="shared" si="27"/>
-        <v>80068.830099170795</v>
+        <f>+AA13*0.99</f>
+        <v>70895.80082514869</v>
       </c>
       <c r="AC13" s="4">
-        <f t="shared" si="27"/>
-        <v>89455.431369589918</v>
+        <f t="shared" ref="AC13:BE13" si="28">+AB13*0.99</f>
+        <v>70186.842816897202</v>
       </c>
       <c r="AD13" s="4">
-        <f t="shared" si="27"/>
-        <v>99870.990908510779</v>
+        <f t="shared" si="28"/>
+        <v>69484.974388728224</v>
       </c>
       <c r="AE13" s="4">
-        <f t="shared" si="27"/>
-        <v>111425.19005087497</v>
+        <f t="shared" si="28"/>
+        <v>68790.124644840937</v>
       </c>
       <c r="AF13" s="4">
-        <f t="shared" si="27"/>
-        <v>124239.20405295992</v>
+        <f t="shared" si="28"/>
+        <v>68102.223398392525</v>
       </c>
       <c r="AG13" s="4">
-        <f t="shared" si="27"/>
-        <v>138446.89273673293</v>
+        <f t="shared" si="28"/>
+        <v>67421.201164408601</v>
       </c>
       <c r="AH13" s="4">
-        <f t="shared" si="27"/>
-        <v>154196.11345863785</v>
+        <f t="shared" si="28"/>
+        <v>66746.989152764509</v>
       </c>
       <c r="AI13" s="4">
-        <f t="shared" si="27"/>
-        <v>171650.16889405093</v>
+        <f t="shared" si="28"/>
+        <v>66079.51926123687</v>
       </c>
       <c r="AJ13" s="4">
-        <f t="shared" si="27"/>
-        <v>190989.40339837089</v>
+        <f t="shared" si="28"/>
+        <v>65418.724068624499</v>
       </c>
       <c r="AK13" s="4">
-        <f t="shared" si="27"/>
-        <v>212412.96310404863</v>
+        <f t="shared" si="28"/>
+        <v>64764.536827938253</v>
       </c>
       <c r="AL13" s="4">
-        <f t="shared" si="27"/>
-        <v>236140.73645281699</v>
+        <f t="shared" si="28"/>
+        <v>64116.891459658873</v>
       </c>
       <c r="AM13" s="4">
-        <f t="shared" si="27"/>
-        <v>262415.49355823983</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="28"/>
+        <v>63475.722545062286</v>
+      </c>
+      <c r="AN13" s="4">
+        <f t="shared" si="28"/>
+        <v>62840.965319611663</v>
+      </c>
+      <c r="AO13" s="4">
+        <f t="shared" si="28"/>
+        <v>62212.555666415545</v>
+      </c>
+      <c r="AP13" s="4">
+        <f t="shared" si="28"/>
+        <v>61590.430109751389</v>
+      </c>
+      <c r="AQ13" s="4">
+        <f t="shared" si="28"/>
+        <v>60974.525808653874</v>
+      </c>
+      <c r="AR13" s="4">
+        <f t="shared" si="28"/>
+        <v>60364.780550567331</v>
+      </c>
+      <c r="AS13" s="4">
+        <f t="shared" si="28"/>
+        <v>59761.132745061659</v>
+      </c>
+      <c r="AT13" s="4">
+        <f t="shared" si="28"/>
+        <v>59163.521417611038</v>
+      </c>
+      <c r="AU13" s="4">
+        <f t="shared" si="28"/>
+        <v>58571.886203434929</v>
+      </c>
+      <c r="AV13" s="4">
+        <f t="shared" si="28"/>
+        <v>57986.167341400578</v>
+      </c>
+      <c r="AW13" s="4">
+        <f t="shared" si="28"/>
+        <v>57406.305667986569</v>
+      </c>
+      <c r="AX13" s="4">
+        <f t="shared" si="28"/>
+        <v>56832.242611306705</v>
+      </c>
+      <c r="AY13" s="4">
+        <f t="shared" si="28"/>
+        <v>56263.920185193638</v>
+      </c>
+      <c r="AZ13" s="4">
+        <f t="shared" si="28"/>
+        <v>55701.280983341698</v>
+      </c>
+      <c r="BA13" s="4">
+        <f t="shared" si="28"/>
+        <v>55144.268173508281</v>
+      </c>
+      <c r="BB13" s="4">
+        <f t="shared" si="28"/>
+        <v>54592.825491773197</v>
+      </c>
+      <c r="BC13" s="4">
+        <f t="shared" si="28"/>
+        <v>54046.897236855468</v>
+      </c>
+      <c r="BD13" s="4">
+        <f t="shared" si="28"/>
+        <v>53506.428264486909</v>
+      </c>
+      <c r="BE13" s="4">
+        <f t="shared" si="28"/>
+        <v>52971.363981842042</v>
+      </c>
+    </row>
+    <row r="14" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B14" s="12">
-        <f t="shared" ref="B14:K14" si="28">+B13/B15</f>
+        <f t="shared" ref="B14:K14" si="29">+B13/B15</f>
         <v>0.64565043894652829</v>
       </c>
       <c r="C14" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.26292585170340682</v>
       </c>
       <c r="D14" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.27386226339105918</v>
       </c>
       <c r="E14" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.57386363636363635</v>
       </c>
       <c r="F14" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.82712550607287449</v>
       </c>
       <c r="G14" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>2.5022240194096241</v>
       </c>
       <c r="H14" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>3.7451377633711509</v>
       </c>
       <c r="I14" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>4.9817518248175183</v>
       </c>
       <c r="J14" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>6.0442729488220959</v>
       </c>
       <c r="K14" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.67536007811864274</v>
       </c>
       <c r="L14" s="12">
-        <f t="shared" ref="L14" si="29">+L13/L15</f>
+        <f t="shared" ref="L14" si="30">+L13/L15</f>
         <v>0.78562128733013259</v>
       </c>
       <c r="M14" s="12"/>
@@ -3737,95 +3229,47 @@
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="12">
-        <f t="shared" ref="R14:AM14" si="30">+R13/R15</f>
+        <f t="shared" ref="R14:AA14" si="31">+R13/R15</f>
         <v>1.7563329312424607</v>
       </c>
       <c r="S14" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>12.051837602510885</v>
       </c>
       <c r="T14" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>12.911092841956064</v>
       </c>
       <c r="U14" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>14.546408191799136</v>
       </c>
       <c r="V14" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>16.365865975165491</v>
       </c>
       <c r="W14" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>18.389396927613365</v>
       </c>
       <c r="X14" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>20.639041398186531</v>
       </c>
       <c r="Y14" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>23.139169410804826</v>
       </c>
       <c r="Z14" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>25.916723448775681</v>
       </c>
       <c r="AA14" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>29.001486291547121</v>
       </c>
-      <c r="AB14" s="12">
-        <f t="shared" si="30"/>
-        <v>32.426376470252421</v>
-      </c>
-      <c r="AC14" s="12">
-        <f t="shared" si="30"/>
-        <v>36.227774170128548</v>
-      </c>
-      <c r="AD14" s="12">
-        <f t="shared" si="30"/>
-        <v>40.445880695964675</v>
-      </c>
-      <c r="AE14" s="12">
-        <f t="shared" si="30"/>
-        <v>45.125114934038663</v>
-      </c>
-      <c r="AF14" s="12">
-        <f t="shared" si="30"/>
-        <v>50.314550593483816</v>
-      </c>
-      <c r="AG14" s="12">
-        <f t="shared" si="30"/>
-        <v>56.068398394951068</v>
-      </c>
-      <c r="AH14" s="12">
-        <f t="shared" si="30"/>
-        <v>62.446537798375154</v>
-      </c>
-      <c r="AI14" s="12">
-        <f t="shared" si="30"/>
-        <v>69.515103328561679</v>
-      </c>
-      <c r="AJ14" s="12">
-        <f t="shared" si="30"/>
-        <v>77.347131071528153</v>
-      </c>
-      <c r="AK14" s="12">
-        <f t="shared" si="30"/>
-        <v>86.023271480833699</v>
-      </c>
-      <c r="AL14" s="12">
-        <f t="shared" si="30"/>
-        <v>95.632575256785259</v>
-      </c>
-      <c r="AM14" s="12">
-        <f t="shared" si="30"/>
-        <v>106.27335974819877</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>41</v>
       </c>
@@ -3876,836 +3320,548 @@
         <v>2469.25</v>
       </c>
       <c r="T15" s="5">
-        <f t="shared" ref="T15:AM15" si="31">+S15</f>
+        <f t="shared" ref="T15:AA15" si="32">+S15</f>
         <v>2469.25</v>
       </c>
       <c r="U15" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>2469.25</v>
       </c>
       <c r="V15" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>2469.25</v>
       </c>
       <c r="W15" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>2469.25</v>
       </c>
       <c r="X15" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>2469.25</v>
       </c>
       <c r="Y15" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>2469.25</v>
       </c>
       <c r="Z15" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>2469.25</v>
       </c>
       <c r="AA15" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>2469.25</v>
       </c>
-      <c r="AB15" s="5">
-        <f t="shared" si="31"/>
-        <v>2469.25</v>
-      </c>
-      <c r="AC15" s="5">
-        <f t="shared" si="31"/>
-        <v>2469.25</v>
-      </c>
-      <c r="AD15" s="5">
-        <f t="shared" si="31"/>
-        <v>2469.25</v>
-      </c>
-      <c r="AE15" s="5">
-        <f t="shared" si="31"/>
-        <v>2469.25</v>
-      </c>
-      <c r="AF15" s="5">
-        <f t="shared" si="31"/>
-        <v>2469.25</v>
-      </c>
-      <c r="AG15" s="5">
-        <f t="shared" si="31"/>
-        <v>2469.25</v>
-      </c>
-      <c r="AH15" s="5">
-        <f t="shared" si="31"/>
-        <v>2469.25</v>
-      </c>
-      <c r="AI15" s="5">
-        <f t="shared" si="31"/>
-        <v>2469.25</v>
-      </c>
-      <c r="AJ15" s="5">
-        <f t="shared" si="31"/>
-        <v>2469.25</v>
-      </c>
-      <c r="AK15" s="5">
-        <f t="shared" si="31"/>
-        <v>2469.25</v>
-      </c>
-      <c r="AL15" s="5">
-        <f t="shared" si="31"/>
-        <v>2469.25</v>
-      </c>
-      <c r="AM15" s="5">
-        <f t="shared" si="31"/>
-        <v>2469.25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="T16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:39" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B17" s="8">
-        <f t="shared" ref="B17:K17" si="32">+B4/B2</f>
+        <f t="shared" ref="B17:K17" si="33">+B4/B2</f>
         <v>0.65528474903474898</v>
       </c>
       <c r="C17" s="8">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.43481503579952269</v>
       </c>
       <c r="D17" s="8">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.53566009104704093</v>
       </c>
       <c r="E17" s="8">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.63344901669145592</v>
       </c>
       <c r="F17" s="8">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.64627363737486099</v>
       </c>
       <c r="G17" s="8">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.7005256533649219</v>
       </c>
       <c r="H17" s="8">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.73951434878587197</v>
       </c>
       <c r="I17" s="8">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.75967063294575399</v>
       </c>
       <c r="J17" s="8">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.78352019659038552</v>
       </c>
       <c r="K17" s="8">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.75146471371504664</v>
       </c>
       <c r="L17" s="8">
-        <f t="shared" ref="L17" si="33">+L4/L2</f>
+        <f t="shared" ref="L17" si="34">+L4/L2</f>
         <v>0.78668571428571432</v>
       </c>
       <c r="M17" s="8"/>
       <c r="R17" s="8">
-        <f t="shared" ref="R17:AM17" si="34">+R4/R2</f>
+        <f t="shared" ref="R17:AA17" si="35">+R4/R2</f>
         <v>0.56928894490991322</v>
       </c>
       <c r="S17" s="8">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.72717573290436954</v>
       </c>
       <c r="T17" s="8">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.73213617412429011</v>
       </c>
       <c r="U17" s="8">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.73700642550384854</v>
       </c>
       <c r="V17" s="8">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.74178812685832396</v>
       </c>
       <c r="W17" s="8">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.74648288818817266</v>
       </c>
       <c r="X17" s="8">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.7510922902211149</v>
       </c>
       <c r="Y17" s="8">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.75561788494436744</v>
       </c>
       <c r="Z17" s="8">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.76006119612719714</v>
       </c>
       <c r="AA17" s="8">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.76442371983397528</v>
       </c>
-      <c r="AB17" s="8">
-        <f t="shared" si="34"/>
-        <v>0.76870692492790305</v>
-      </c>
-      <c r="AC17" s="8">
-        <f t="shared" si="34"/>
-        <v>0.77291225356557747</v>
-      </c>
-      <c r="AD17" s="8">
-        <f t="shared" si="34"/>
-        <v>0.777041121682567</v>
-      </c>
-      <c r="AE17" s="8">
-        <f t="shared" si="34"/>
-        <v>0.78109491947015663</v>
-      </c>
-      <c r="AF17" s="8">
-        <f t="shared" si="34"/>
-        <v>0.78507501184342654</v>
-      </c>
-      <c r="AG17" s="8">
-        <f t="shared" si="34"/>
-        <v>0.78898273890081883</v>
-      </c>
-      <c r="AH17" s="8">
-        <f t="shared" si="34"/>
-        <v>0.79281941637534936</v>
-      </c>
-      <c r="AI17" s="8">
-        <f t="shared" si="34"/>
-        <v>0.79658633607761575</v>
-      </c>
-      <c r="AJ17" s="8">
-        <f t="shared" si="34"/>
-        <v>0.80028476633075007</v>
-      </c>
-      <c r="AK17" s="8">
-        <f t="shared" si="34"/>
-        <v>0.80391595239746372</v>
-      </c>
-      <c r="AL17" s="8">
-        <f t="shared" si="34"/>
-        <v>0.807481116899328</v>
-      </c>
-      <c r="AM17" s="8">
-        <f t="shared" si="34"/>
-        <v>0.81098146022843109</v>
-      </c>
-    </row>
-    <row r="18" spans="1:39" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B18" s="8">
-        <f t="shared" ref="B18:K18" si="35">+B5/B2</f>
+        <f t="shared" ref="B18:K18" si="36">+B5/B2</f>
         <v>0.19522200772200773</v>
       </c>
       <c r="C18" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.27207637231503579</v>
       </c>
       <c r="D18" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.32793795312763446</v>
       </c>
       <c r="E18" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.3224260452817716</v>
       </c>
       <c r="F18" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.26070634037819801</v>
       </c>
       <c r="G18" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.15103279780854373</v>
       </c>
       <c r="H18" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.12660044150110375</v>
       </c>
       <c r="I18" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.11152332262588789</v>
       </c>
       <c r="J18" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.10443864229765012</v>
       </c>
       <c r="K18" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.10286284953395473</v>
       </c>
       <c r="L18" s="8">
-        <f t="shared" ref="L18" si="36">+L5/L2</f>
+        <f t="shared" ref="L18" si="37">+L5/L2</f>
         <v>8.8285714285714287E-2</v>
       </c>
       <c r="M18" s="8"/>
       <c r="R18" s="8">
-        <f t="shared" ref="R18:AM18" si="37">+R5/R2</f>
+        <f t="shared" ref="R18:AA18" si="38">+R5/R2</f>
         <v>0.27203974197375252</v>
       </c>
       <c r="S18" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.14237877942286858</v>
       </c>
       <c r="T18" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.13979007434245277</v>
       </c>
       <c r="U18" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.13724843662713543</v>
       </c>
       <c r="V18" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.13475301050664207</v>
       </c>
       <c r="W18" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.13230295577015766</v>
       </c>
       <c r="X18" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.12989744748342752</v>
       </c>
       <c r="Y18" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.12753567571100158</v>
       </c>
       <c r="Z18" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.12521684524352883</v>
       </c>
       <c r="AA18" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.1229401753300101</v>
       </c>
-      <c r="AB18" s="8">
-        <f t="shared" si="37"/>
-        <v>0.12070489941491902</v>
-      </c>
-      <c r="AC18" s="8">
-        <f t="shared" si="37"/>
-        <v>0.1185102648801023</v>
-      </c>
-      <c r="AD18" s="8">
-        <f t="shared" si="37"/>
-        <v>0.11635553279137317</v>
-      </c>
-      <c r="AE18" s="8">
-        <f t="shared" si="37"/>
-        <v>0.11423997764971185</v>
-      </c>
-      <c r="AF18" s="8">
-        <f t="shared" si="37"/>
-        <v>0.11216288714698981</v>
-      </c>
-      <c r="AG18" s="8">
-        <f t="shared" si="37"/>
-        <v>0.11012356192613544</v>
-      </c>
-      <c r="AH18" s="8">
-        <f t="shared" si="37"/>
-        <v>0.10812131534566025</v>
-      </c>
-      <c r="AI18" s="8">
-        <f t="shared" si="37"/>
-        <v>0.10615547324846643</v>
-      </c>
-      <c r="AJ18" s="8">
-        <f t="shared" si="37"/>
-        <v>0.10422537373485793</v>
-      </c>
-      <c r="AK18" s="8">
-        <f t="shared" si="37"/>
-        <v>0.1023303669396787</v>
-      </c>
-      <c r="AL18" s="8">
-        <f t="shared" si="37"/>
-        <v>0.10046981481350271</v>
-      </c>
-      <c r="AM18" s="8">
-        <f t="shared" si="37"/>
-        <v>9.8643090907802669E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:39" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B19" s="8">
-        <f t="shared" ref="B19:K19" si="38">+B6/B2</f>
+        <f t="shared" ref="B19:K19" si="39">+B6/B2</f>
         <v>7.1428571428571425E-2</v>
       </c>
       <c r="C19" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>8.83054892601432E-2</v>
       </c>
       <c r="D19" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0.1063901534311246</v>
       </c>
       <c r="E19" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0.10328871260948604</v>
       </c>
       <c r="F19" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>8.8014460511679646E-2</v>
       </c>
       <c r="G19" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>4.6050196194565782E-2</v>
       </c>
       <c r="H19" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>3.8024282560706404E-2</v>
       </c>
       <c r="I19" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>3.2167579061665834E-2</v>
       </c>
       <c r="J19" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>2.9834126862233145E-2</v>
       </c>
       <c r="K19" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>2.8029294274300932E-2</v>
       </c>
       <c r="L19" s="8">
-        <f t="shared" ref="L19" si="39">+L6/L2</f>
+        <f t="shared" ref="L19" si="40">+L6/L2</f>
         <v>2.4057142857142857E-2</v>
       </c>
       <c r="M19" s="8"/>
       <c r="R19" s="8">
-        <f t="shared" ref="R19:AM19" si="40">+R6/R2</f>
+        <f t="shared" ref="R19:AA19" si="41">+R6/R2</f>
         <v>9.0457477570994288E-2</v>
       </c>
       <c r="S19" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>4.3580315813663374E-2</v>
       </c>
       <c r="T19" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>4.1599392367587758E-2</v>
       </c>
       <c r="U19" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>3.9708510896333767E-2</v>
       </c>
       <c r="V19" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>3.7903578582864049E-2</v>
       </c>
       <c r="W19" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>3.6180688647279316E-2</v>
       </c>
       <c r="X19" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>3.4536111890584795E-2</v>
       </c>
       <c r="Y19" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>3.2966288622830943E-2</v>
       </c>
       <c r="Z19" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>3.1467820958156804E-2</v>
       </c>
       <c r="AA19" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>3.0037465460058772E-2</v>
       </c>
-      <c r="AB19" s="8">
-        <f t="shared" si="40"/>
-        <v>2.8672126120965192E-2</v>
-      </c>
-      <c r="AC19" s="8">
-        <f t="shared" si="40"/>
-        <v>2.7368847660921319E-2</v>
-      </c>
-      <c r="AD19" s="8">
-        <f t="shared" si="40"/>
-        <v>2.6124809130879442E-2</v>
-      </c>
-      <c r="AE19" s="8">
-        <f t="shared" si="40"/>
-        <v>2.4937317806748554E-2</v>
-      </c>
-      <c r="AF19" s="8">
-        <f t="shared" si="40"/>
-        <v>2.3803803360987256E-2</v>
-      </c>
-      <c r="AG19" s="8">
-        <f t="shared" si="40"/>
-        <v>2.2721812299124199E-2</v>
-      </c>
-      <c r="AH19" s="8">
-        <f t="shared" si="40"/>
-        <v>2.1689002649164006E-2</v>
-      </c>
-      <c r="AI19" s="8">
-        <f t="shared" si="40"/>
-        <v>2.0703138892383822E-2</v>
-      </c>
-      <c r="AJ19" s="8">
-        <f t="shared" si="40"/>
-        <v>1.9762087124548192E-2</v>
-      </c>
-      <c r="AK19" s="8">
-        <f t="shared" si="40"/>
-        <v>1.8863810437068727E-2</v>
-      </c>
-      <c r="AL19" s="8">
-        <f t="shared" si="40"/>
-        <v>1.8006364508111057E-2</v>
-      </c>
-      <c r="AM19" s="8">
-        <f t="shared" si="40"/>
-        <v>1.7187893394106007E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:39" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B20" s="8">
-        <f t="shared" ref="B20:K20" si="41">+B9/B2</f>
+        <f t="shared" ref="B20:K20" si="42">+B9/B2</f>
         <v>0.22538610038610038</v>
       </c>
       <c r="C20" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>7.4433174224343673E-2</v>
       </c>
       <c r="D20" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0.10133198448828191</v>
       </c>
       <c r="E20" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0.2077342588001983</v>
       </c>
       <c r="F20" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0.29755283648498332</v>
       </c>
       <c r="G20" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0.50344265936181243</v>
       </c>
       <c r="H20" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0.5748896247240618</v>
       </c>
       <c r="I20" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0.61597973125820027</v>
       </c>
       <c r="J20" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0.64924742743050223</v>
       </c>
       <c r="K20" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0.62057256990679099</v>
       </c>
       <c r="L20" s="8">
-        <f t="shared" ref="L20" si="42">+L9/L2</f>
+        <f t="shared" ref="L20" si="43">+L9/L2</f>
         <v>0.66420000000000001</v>
       </c>
       <c r="M20" s="8"/>
       <c r="R20" s="8">
-        <f t="shared" ref="R20:AM20" si="43">+R9/R2</f>
+        <f t="shared" ref="R20:AA20" si="44">+R9/R2</f>
         <v>0.15663231259731594</v>
       </c>
       <c r="S20" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0.54121663766783756</v>
       </c>
       <c r="T20" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0.55074670741424958</v>
       </c>
       <c r="U20" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0.5600494779803793</v>
       </c>
       <c r="V20" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0.56913153776881786</v>
       </c>
       <c r="W20" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0.57799924377073564</v>
       </c>
       <c r="X20" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0.58665873084710263</v>
       </c>
       <c r="Y20" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0.59511592061053498</v>
       </c>
       <c r="Z20" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0.60337652992551161</v>
       </c>
       <c r="AA20" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0.61144607904390647</v>
       </c>
-      <c r="AB20" s="8">
-        <f t="shared" si="43"/>
-        <v>0.61932989939201877</v>
-      </c>
-      <c r="AC20" s="8">
-        <f t="shared" si="43"/>
-        <v>0.62703314102455376</v>
-      </c>
-      <c r="AD20" s="8">
-        <f t="shared" si="43"/>
-        <v>0.63456077976031433</v>
-      </c>
-      <c r="AE20" s="8">
-        <f t="shared" si="43"/>
-        <v>0.64191762401369623</v>
-      </c>
-      <c r="AF20" s="8">
-        <f t="shared" si="43"/>
-        <v>0.64910832133544949</v>
-      </c>
-      <c r="AG20" s="8">
-        <f t="shared" si="43"/>
-        <v>0.65613736467555916</v>
-      </c>
-      <c r="AH20" s="8">
-        <f t="shared" si="43"/>
-        <v>0.66300909838052513</v>
-      </c>
-      <c r="AI20" s="8">
-        <f t="shared" si="43"/>
-        <v>0.6697277239367655</v>
-      </c>
-      <c r="AJ20" s="8">
-        <f t="shared" si="43"/>
-        <v>0.67629730547134392</v>
-      </c>
-      <c r="AK20" s="8">
-        <f t="shared" si="43"/>
-        <v>0.68272177502071618</v>
-      </c>
-      <c r="AL20" s="8">
-        <f t="shared" si="43"/>
-        <v>0.68900493757771419</v>
-      </c>
-      <c r="AM20" s="8">
-        <f t="shared" si="43"/>
-        <v>0.69515047592652235</v>
-      </c>
-    </row>
-    <row r="21" spans="1:39" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B21" s="8">
-        <f t="shared" ref="B21:K21" si="44">+B12/B11</f>
+        <f t="shared" ref="B21:K21" si="45">+B12/B11</f>
         <v>0.10360110803324099</v>
       </c>
       <c r="C21" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>-0.38105263157894737</v>
       </c>
       <c r="D21" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>-0.10929853181076672</v>
       </c>
       <c r="E21" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>-9.6974398758727695E-2</v>
       </c>
       <c r="F21" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>7.5147125396106837E-2</v>
       </c>
       <c r="G21" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0.11359404096834265</v>
       </c>
       <c r="H21" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0.12155483748336818</v>
       </c>
       <c r="I21" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0.12909400255210549</v>
       </c>
       <c r="J21" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0.13878117946640431</v>
       </c>
       <c r="K21" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0.1360986780472572</v>
       </c>
       <c r="L21" s="8">
-        <f t="shared" ref="L21" si="45">+L12/L11</f>
+        <f t="shared" ref="L21" si="46">+L12/L11</f>
         <v>0.10978630505058987</v>
       </c>
       <c r="M21" s="8"/>
       <c r="R21" s="8">
-        <f t="shared" ref="R21:AM21" si="46">+R12/R11</f>
+        <f t="shared" ref="R21:AA21" si="47">+R12/R11</f>
         <v>-4.4476327116212341E-2</v>
       </c>
       <c r="S21" s="8">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0.12002483884321959</v>
       </c>
       <c r="T21" s="8">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="U21" s="8">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="V21" s="8">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="W21" s="8">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="X21" s="8">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="Y21" s="8">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="Z21" s="8">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="AA21" s="8">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0.14000000000000001</v>
       </c>
-      <c r="AB21" s="8">
-        <f t="shared" si="46"/>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="AC21" s="8">
-        <f t="shared" si="46"/>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="AD21" s="8">
-        <f t="shared" si="46"/>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="AE21" s="8">
-        <f t="shared" si="46"/>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="AF21" s="8">
-        <f t="shared" si="46"/>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="AG21" s="8">
-        <f t="shared" si="46"/>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="AH21" s="8">
-        <f t="shared" si="46"/>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="AI21" s="8">
-        <f t="shared" si="46"/>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="AJ21" s="8">
-        <f t="shared" si="46"/>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="AK21" s="8">
-        <f t="shared" si="46"/>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="AL21" s="8">
-        <f t="shared" si="46"/>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="AM21" s="8">
-        <f t="shared" si="46"/>
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:39" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B22" s="8">
-        <f t="shared" ref="B22:K22" si="47">+B13/B4</f>
+        <f t="shared" ref="B22:K22" si="48">+B13/B4</f>
         <v>0.29791935186890073</v>
       </c>
       <c r="C22" s="8">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0.22504288164665523</v>
       </c>
       <c r="D22" s="8">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0.21403840100723953</v>
       </c>
       <c r="E22" s="8">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0.36890164362118444</v>
       </c>
       <c r="F22" s="8">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0.43954388984509468</v>
       </c>
       <c r="G22" s="8">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0.65398435848657788</v>
       </c>
       <c r="H22" s="8">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0.68977611940298511</v>
       </c>
       <c r="I22" s="8">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0.7316419510452028</v>
       </c>
       <c r="J22" s="8">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0.72924630010781144</v>
       </c>
       <c r="K22" s="8">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0.73531496411801189</v>
       </c>
       <c r="L22" s="8">
-        <f t="shared" ref="L22" si="48">+L13/L4</f>
+        <f t="shared" ref="L22" si="49">+L13/L4</f>
         <v>0.70127841940873104</v>
       </c>
       <c r="M22" s="8"/>
       <c r="R22" s="8">
-        <f t="shared" ref="R22:AM22" si="49">+R13/R4</f>
+        <f t="shared" ref="R22:AA22" si="50">+R13/R4</f>
         <v>0.28444907528002084</v>
       </c>
       <c r="S22" s="8">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0.67174555879099795</v>
       </c>
       <c r="T22" s="8">
@@ -4713,84 +3869,36 @@
         <v>3.3171284897618425E-3</v>
       </c>
       <c r="U22" s="8">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0.66113482783456912</v>
       </c>
       <c r="V22" s="8">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0.67184945202625812</v>
       </c>
       <c r="W22" s="8">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0.68197397187713826</v>
       </c>
       <c r="X22" s="8">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0.69155018596378859</v>
       </c>
       <c r="Y22" s="8">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0.70061645979595355</v>
       </c>
       <c r="Z22" s="8">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0.70920803570047297</v>
       </c>
       <c r="AA22" s="8">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0.71735731265070035</v>
       </c>
-      <c r="AB22" s="8">
-        <f t="shared" si="49"/>
-        <v>0.72509409914870615</v>
-      </c>
-      <c r="AC22" s="8">
-        <f t="shared" si="49"/>
-        <v>0.73244584192551521</v>
-      </c>
-      <c r="AD22" s="8">
-        <f t="shared" si="49"/>
-        <v>0.73943783292273024</v>
-      </c>
-      <c r="AE22" s="8">
-        <f t="shared" si="49"/>
-        <v>0.74609339675210007</v>
-      </c>
-      <c r="AF22" s="8">
-        <f t="shared" si="49"/>
-        <v>0.75243406059355611</v>
-      </c>
-      <c r="AG22" s="8">
-        <f t="shared" si="49"/>
-        <v>0.75847970828317646</v>
-      </c>
-      <c r="AH22" s="8">
-        <f t="shared" si="49"/>
-        <v>0.76424872015716394</v>
-      </c>
-      <c r="AI22" s="8">
-        <f t="shared" si="49"/>
-        <v>0.7697581000533853</v>
-      </c>
-      <c r="AJ22" s="8">
-        <f t="shared" si="49"/>
-        <v>0.77502359072582505</v>
-      </c>
-      <c r="AK22" s="8">
-        <f t="shared" si="49"/>
-        <v>0.78005977879727073</v>
-      </c>
-      <c r="AL22" s="8">
-        <f t="shared" si="49"/>
-        <v>0.78488019025979927</v>
-      </c>
-      <c r="AM22" s="8">
-        <f t="shared" si="49"/>
-        <v>0.78949737742947401</v>
-      </c>
-    </row>
-    <row r="23" spans="1:39" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:39" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>48</v>
       </c>
@@ -4798,27 +3906,27 @@
         <v>4</v>
       </c>
       <c r="F24" s="8">
-        <f t="shared" ref="F24:K24" si="50">+F2/B2-1</f>
+        <f t="shared" ref="F24:K24" si="51">+F2/B2-1</f>
         <v>-0.13223938223938225</v>
       </c>
       <c r="G24" s="8">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>1.0147673031026252</v>
       </c>
       <c r="H24" s="8">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>2.0551340414769852</v>
       </c>
       <c r="I24" s="8">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>2.6527846636919516</v>
       </c>
       <c r="J24" s="8">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>2.6212458286985538</v>
       </c>
       <c r="K24" s="8">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>1.2240319834160065</v>
       </c>
       <c r="N24" s="2" t="s">
@@ -4832,124 +3940,76 @@
         <v>4</v>
       </c>
       <c r="S24" s="8">
-        <f t="shared" ref="S24:AM24" si="51">+S2/R2-1</f>
+        <f t="shared" ref="S24:AA24" si="52">+S2/R2-1</f>
         <v>1.2585452658115224</v>
       </c>
       <c r="T24" s="8">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="U24" s="8">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="V24" s="8">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="W24" s="8">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="X24" s="8">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="Y24" s="8">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="Z24" s="8">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="AA24" s="8">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AB24" s="8">
-        <f t="shared" si="51"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="AC24" s="8">
-        <f t="shared" si="51"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="AD24" s="8">
-        <f t="shared" si="51"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="AE24" s="8">
-        <f t="shared" si="51"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="AF24" s="8">
-        <f t="shared" si="51"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="AG24" s="8">
-        <f t="shared" si="51"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="AH24" s="8">
-        <f t="shared" si="51"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="AI24" s="8">
-        <f t="shared" si="51"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="AJ24" s="8">
-        <f t="shared" si="51"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="AK24" s="8">
-        <f t="shared" si="51"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="AL24" s="8">
-        <f t="shared" si="51"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="AM24" s="8">
-        <f t="shared" si="51"/>
-        <v>0.10000000000000009</v>
-      </c>
-    </row>
-    <row r="25" spans="1:39" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:39" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>50</v>
       </c>
       <c r="E26" s="8">
-        <f t="shared" ref="E26:J26" si="52">+E13/E27</f>
+        <f t="shared" ref="E26:J26" si="53">+E13/E27</f>
         <v>0.60349978659837811</v>
       </c>
       <c r="F26" s="8">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0.45653631284916202</v>
       </c>
       <c r="G26" s="8">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>1.0975523235189784</v>
       </c>
       <c r="H26" s="8">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>1.241671144545943</v>
       </c>
       <c r="I26" s="8">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0.75483870967741939</v>
       </c>
       <c r="J26" s="8">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0.79314572007248696</v>
       </c>
       <c r="R26" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:39" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>51</v>
       </c>
@@ -4957,27 +4017,27 @@
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="4">
-        <f t="shared" ref="E27:J27" si="53">+E29-E40</f>
+        <f t="shared" ref="E27:J27" si="54">+E29-E40</f>
         <v>2343</v>
       </c>
       <c r="F27" s="4">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>4475</v>
       </c>
       <c r="G27" s="4">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>5638</v>
       </c>
       <c r="H27" s="4">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>7444</v>
       </c>
       <c r="I27" s="4">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>16275</v>
       </c>
       <c r="J27" s="4">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>18762</v>
       </c>
       <c r="K27" s="3"/>
@@ -5002,83 +4062,35 @@
         <v>48155.716000000015</v>
       </c>
       <c r="U27" s="4">
-        <f t="shared" ref="U27:AM27" si="54">+T27+U13</f>
+        <f t="shared" ref="U27:AA27" si="55">+T27+U13</f>
         <v>84074.434427600034</v>
       </c>
       <c r="V27" s="4">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>124485.84898677742</v>
       </c>
       <c r="W27" s="4">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>169893.86735028672</v>
       </c>
       <c r="X27" s="4">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>220856.82032275881</v>
       </c>
       <c r="Y27" s="4">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>277993.21439038863</v>
       </c>
       <c r="Z27" s="4">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>341988.083766278</v>
       </c>
       <c r="AA27" s="4">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>413600.00379168073</v>
       </c>
-      <c r="AB27" s="4">
-        <f t="shared" si="54"/>
-        <v>493668.83389085153</v>
-      </c>
-      <c r="AC27" s="4">
-        <f t="shared" si="54"/>
-        <v>583124.26526044146</v>
-      </c>
-      <c r="AD27" s="4">
-        <f t="shared" si="54"/>
-        <v>682995.25616895221</v>
-      </c>
-      <c r="AE27" s="4">
-        <f t="shared" si="54"/>
-        <v>794420.44621982716</v>
-      </c>
-      <c r="AF27" s="4">
-        <f t="shared" si="54"/>
-        <v>918659.65027278708</v>
-      </c>
-      <c r="AG27" s="4">
-        <f t="shared" si="54"/>
-        <v>1057106.54300952</v>
-      </c>
-      <c r="AH27" s="4">
-        <f t="shared" si="54"/>
-        <v>1211302.6564681579</v>
-      </c>
-      <c r="AI27" s="4">
-        <f t="shared" si="54"/>
-        <v>1382952.8253622088</v>
-      </c>
-      <c r="AJ27" s="4">
-        <f t="shared" si="54"/>
-        <v>1573942.2287605796</v>
-      </c>
-      <c r="AK27" s="4">
-        <f t="shared" si="54"/>
-        <v>1786355.1918646283</v>
-      </c>
-      <c r="AL27" s="4">
-        <f t="shared" si="54"/>
-        <v>2022495.9283174453</v>
-      </c>
-      <c r="AM27" s="4">
-        <f t="shared" si="54"/>
-        <v>2284911.421875685</v>
-      </c>
-    </row>
-    <row r="28" spans="1:39" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F28" s="2" t="s">
         <v>4</v>
       </c>
@@ -5090,7 +4102,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:39" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>5</v>
       </c>
@@ -5115,7 +4127,7 @@
         <v>31438</v>
       </c>
     </row>
-    <row r="30" spans="1:39" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>52</v>
       </c>
@@ -5141,7 +4153,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:39" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>53</v>
       </c>
@@ -5164,7 +4176,7 @@
         <v>5864</v>
       </c>
     </row>
-    <row r="32" spans="1:39" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>54</v>
       </c>
@@ -5316,27 +4328,27 @@
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="4">
-        <f t="shared" ref="E38:J38" si="55">SUM(E29:E37)</f>
+        <f t="shared" ref="E38:J38" si="56">SUM(E29:E37)</f>
         <v>41150</v>
       </c>
       <c r="F38" s="4">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>44460</v>
       </c>
       <c r="G38" s="4">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>49555</v>
       </c>
       <c r="H38" s="4">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>54148</v>
       </c>
       <c r="I38" s="4">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>65728</v>
       </c>
       <c r="J38" s="4">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>77072</v>
       </c>
       <c r="R38" s="4"/>
@@ -5477,27 +4489,27 @@
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="4">
-        <f t="shared" ref="E45:J45" si="56">SUM(E40:E44)</f>
+        <f t="shared" ref="E45:J45" si="57">SUM(E40:E44)</f>
         <v>19081</v>
       </c>
       <c r="F45" s="4">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>19940</v>
       </c>
       <c r="G45" s="4">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>22054</v>
       </c>
       <c r="H45" s="4">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>20883</v>
       </c>
       <c r="I45" s="4">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>22750</v>
       </c>
       <c r="J45" s="4">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>27930</v>
       </c>
       <c r="R45" s="4"/>
@@ -5514,27 +4526,27 @@
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="4">
-        <f t="shared" ref="E47:J47" si="57">+E38-E45</f>
+        <f t="shared" ref="E47:J47" si="58">+E38-E45</f>
         <v>22069</v>
       </c>
       <c r="F47" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>24520</v>
       </c>
       <c r="G47" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>27501</v>
       </c>
       <c r="H47" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>33265</v>
       </c>
       <c r="I47" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>42978</v>
       </c>
       <c r="J47" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>49142</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -5555,27 +4567,27 @@
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="4">
-        <f t="shared" ref="E48:J48" si="58">+E45+E47</f>
+        <f t="shared" ref="E48:J48" si="59">+E45+E47</f>
         <v>41150</v>
       </c>
       <c r="F48" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>44460</v>
       </c>
       <c r="G48" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>49555</v>
       </c>
       <c r="H48" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>54148</v>
       </c>
       <c r="I48" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>65728</v>
       </c>
       <c r="J48" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>77072</v>
       </c>
       <c r="R48" s="4" t="s">
@@ -5593,27 +4605,27 @@
         <v>70</v>
       </c>
       <c r="E50" s="8">
-        <f t="shared" ref="E50:J50" si="59">+E13/E38</f>
+        <f t="shared" ref="E50:J50" si="60">+E13/E38</f>
         <v>3.4362089914945319E-2</v>
       </c>
       <c r="F50" s="8">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>4.5951417004048582E-2</v>
       </c>
       <c r="G50" s="8">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>0.1248713550600343</v>
       </c>
       <c r="H50" s="8">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>0.17069882544138287</v>
       </c>
       <c r="I50" s="8">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>0.18690664556962025</v>
       </c>
       <c r="J50" s="8">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>0.19307919867137222</v>
       </c>
       <c r="R50" s="8" t="s">
@@ -5628,27 +4640,27 @@
         <v>71</v>
       </c>
       <c r="E51" s="8">
-        <f t="shared" ref="E51:J51" si="60">+E13/(E38-E45)</f>
+        <f t="shared" ref="E51:J51" si="61">+E13/(E38-E45)</f>
         <v>6.4071774887851735E-2</v>
       </c>
       <c r="F51" s="8">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>8.3319738988580749E-2</v>
       </c>
       <c r="G51" s="8">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>0.22500999963637686</v>
       </c>
       <c r="H51" s="8">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>0.27785961220502031</v>
       </c>
       <c r="I51" s="8">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>0.28584392014519056</v>
       </c>
       <c r="J51" s="8">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>0.30281632819177079</v>
       </c>
       <c r="R51" s="8" t="s">

--- a/Stocks/NVDA.xlsx
+++ b/Stocks/NVDA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://academiafaedupt-my.sharepoint.com/personal/sbclemente_academiafa_edu_pt/Documents/Gigs/WorkingFolder/Finance/Stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="188" documentId="13_ncr:1_{F577B6F0-892C-4F50-9419-1EE04536669B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2EA33C0A-FB38-4050-AFB8-6C0E7CEDBD0C}"/>
+  <xr:revisionPtr revIDLastSave="200" documentId="13_ncr:1_{F577B6F0-892C-4F50-9419-1EE04536669B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BBC76D27-D09C-45FB-A89F-4EDB4C3428DD}"/>
   <bookViews>
-    <workbookView xWindow="6015" yWindow="1275" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="101">
   <si>
     <t>NVDA</t>
   </si>
@@ -331,6 +331,18 @@
   </si>
   <si>
     <t>FCF</t>
+  </si>
+  <si>
+    <t>Q424</t>
+  </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q325</t>
   </si>
 </sst>
 </file>
@@ -342,12 +354,18 @@
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -404,22 +422,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="8" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -441,10 +460,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>-19050</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="38100" cy="5391150"/>
     <xdr:grpSp>
@@ -460,7 +479,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7620000" y="9525"/>
+          <a:off x="12592050" y="76200"/>
           <a:ext cx="38100" cy="5391150"/>
           <a:chOff x="5346000" y="1084425"/>
           <a:chExt cx="0" cy="5391150"/>
@@ -502,7 +521,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>-9525</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
@@ -521,7 +540,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14363700" y="38100"/>
+          <a:off x="18649950" y="38100"/>
           <a:ext cx="38100" cy="5391150"/>
           <a:chOff x="5346000" y="1084425"/>
           <a:chExt cx="0" cy="5391150"/>
@@ -562,6 +581,10 @@
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1843,26 +1866,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:BE1002"/>
+  <dimension ref="A1:BJ1002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q18" sqref="Q18"/>
+      <selection pane="bottomRight" activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="15.625" customWidth="1"/>
     <col min="3" max="11" width="8.625" customWidth="1"/>
-    <col min="12" max="13" width="11.25" customWidth="1"/>
-    <col min="14" max="14" width="11.375" customWidth="1"/>
-    <col min="15" max="15" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="16" max="27" width="8.625" customWidth="1"/>
+    <col min="12" max="18" width="11.25" customWidth="1"/>
+    <col min="19" max="19" width="11.375" customWidth="1"/>
+    <col min="20" max="20" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="21" max="32" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:62" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="5" t="s">
         <v>8</v>
       </c>
@@ -1896,54 +1919,67 @@
       <c r="L1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5" t="s">
+      <c r="M1" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="6">
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="6">
         <v>2022</v>
       </c>
-      <c r="S1" s="6">
-        <f t="shared" ref="S1:AA1" si="0">+R1+1</f>
+      <c r="X1" s="6">
+        <f t="shared" ref="X1:AF1" si="0">+W1+1</f>
         <v>2023</v>
       </c>
-      <c r="T1" s="6">
+      <c r="Y1" s="6">
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-      <c r="U1" s="6">
+      <c r="Z1" s="6">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="V1" s="6">
+      <c r="AA1" s="6">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="W1" s="6">
+      <c r="AB1" s="6">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="X1" s="6">
+      <c r="AC1" s="6">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="Y1" s="6">
+      <c r="AD1" s="6">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="Z1" s="6">
+      <c r="AE1" s="6">
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
-      <c r="AA1" s="6">
+      <c r="AF1" s="6">
         <f t="shared" si="0"/>
         <v>2031</v>
       </c>
     </row>
-    <row r="2" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:62" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -1981,54 +2017,59 @@
         <v>35000</v>
       </c>
       <c r="M2" s="4"/>
-      <c r="N2" s="4" t="s">
-        <v>0</v>
-      </c>
+      <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
-      <c r="R2" s="4">
-        <f t="shared" ref="R2:R3" si="1">SUM(B2:E2)</f>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4">
+        <f t="shared" ref="W2:W3" si="1">SUM(B2:E2)</f>
         <v>26974</v>
       </c>
-      <c r="S2" s="4">
-        <f t="shared" ref="S2:S3" si="2">SUM(F2:I2)</f>
+      <c r="X2" s="4">
+        <f t="shared" ref="X2:X3" si="2">SUM(F2:I2)</f>
         <v>60922</v>
       </c>
-      <c r="T2" s="4">
-        <f t="shared" ref="T2:AA2" si="3">+S2*(1-$O$4)</f>
+      <c r="Y2" s="4">
+        <f t="shared" ref="Y2:AF2" si="3">+X2*(1-$T$4)</f>
         <v>67014.200000000012</v>
       </c>
-      <c r="U2" s="4">
+      <c r="Z2" s="4">
         <f t="shared" si="3"/>
         <v>73715.620000000024</v>
       </c>
-      <c r="V2" s="4">
+      <c r="AA2" s="4">
         <f t="shared" si="3"/>
         <v>81087.18200000003</v>
       </c>
-      <c r="W2" s="4">
+      <c r="AB2" s="4">
         <f t="shared" si="3"/>
         <v>89195.900200000033</v>
       </c>
-      <c r="X2" s="4">
+      <c r="AC2" s="4">
         <f t="shared" si="3"/>
         <v>98115.490220000051</v>
       </c>
-      <c r="Y2" s="4">
+      <c r="AD2" s="4">
         <f t="shared" si="3"/>
         <v>107927.03924200006</v>
       </c>
-      <c r="Z2" s="4">
+      <c r="AE2" s="4">
         <f t="shared" si="3"/>
         <v>118719.74316620007</v>
       </c>
-      <c r="AA2" s="4">
+      <c r="AF2" s="4">
         <f t="shared" si="3"/>
         <v>130591.7174828201</v>
       </c>
     </row>
-    <row r="3" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:62" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
@@ -2066,56 +2107,61 @@
         <v>7466</v>
       </c>
       <c r="M3" s="5"/>
-      <c r="N3" s="7" t="s">
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="O3" s="8">
+      <c r="T3" s="8">
         <v>0.01</v>
       </c>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5">
+      <c r="U3" s="8"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5">
         <f t="shared" si="1"/>
         <v>11618</v>
       </c>
-      <c r="S3" s="5">
+      <c r="X3" s="5">
         <f t="shared" si="2"/>
         <v>16621</v>
       </c>
-      <c r="T3" s="5">
-        <f>+S3*1.08</f>
+      <c r="Y3" s="5">
+        <f>+X3*1.08</f>
         <v>17950.68</v>
       </c>
-      <c r="U3" s="5">
-        <f t="shared" ref="U3:AA3" si="4">+T3*1.08</f>
+      <c r="Z3" s="5">
+        <f t="shared" ref="Z3:AF3" si="4">+Y3*1.08</f>
         <v>19386.734400000001</v>
       </c>
-      <c r="V3" s="5">
+      <c r="AA3" s="5">
         <f t="shared" si="4"/>
         <v>20937.673152000003</v>
       </c>
-      <c r="W3" s="5">
+      <c r="AB3" s="5">
         <f t="shared" si="4"/>
         <v>22612.687004160005</v>
       </c>
-      <c r="X3" s="5">
+      <c r="AC3" s="5">
         <f t="shared" si="4"/>
         <v>24421.701964492808</v>
       </c>
-      <c r="Y3" s="5">
+      <c r="AD3" s="5">
         <f t="shared" si="4"/>
         <v>26375.438121652234</v>
       </c>
-      <c r="Z3" s="5">
+      <c r="AE3" s="5">
         <f t="shared" si="4"/>
         <v>28485.473171384416</v>
       </c>
-      <c r="AA3" s="5">
+      <c r="AF3" s="5">
         <f t="shared" si="4"/>
         <v>30764.311025095172</v>
       </c>
     </row>
-    <row r="4" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:62" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -2164,56 +2210,61 @@
         <v>27534</v>
       </c>
       <c r="M4" s="4"/>
-      <c r="N4" s="7" t="s">
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="O4" s="8">
+      <c r="T4" s="8">
         <v>-0.1</v>
       </c>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4">
-        <f t="shared" ref="R4:S4" si="6">+R2-R3</f>
+      <c r="U4" s="8"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4">
+        <f t="shared" ref="W4:X4" si="6">+W2-W3</f>
         <v>15356</v>
       </c>
-      <c r="S4" s="4">
+      <c r="X4" s="4">
         <f t="shared" si="6"/>
         <v>44301</v>
       </c>
-      <c r="T4" s="4">
-        <f>+T2-T3</f>
+      <c r="Y4" s="4">
+        <f>+Y2-Y3</f>
         <v>49063.520000000011</v>
       </c>
-      <c r="U4" s="4">
-        <f t="shared" ref="U4:AA4" si="7">+U2-U3</f>
+      <c r="Z4" s="4">
+        <f t="shared" ref="Z4:AF4" si="7">+Z2-Z3</f>
         <v>54328.885600000023</v>
       </c>
-      <c r="V4" s="4">
+      <c r="AA4" s="4">
         <f t="shared" si="7"/>
         <v>60149.508848000027</v>
       </c>
-      <c r="W4" s="4">
+      <c r="AB4" s="4">
         <f t="shared" si="7"/>
         <v>66583.213195840028</v>
       </c>
-      <c r="X4" s="4">
+      <c r="AC4" s="4">
         <f t="shared" si="7"/>
         <v>73693.788255507243</v>
       </c>
-      <c r="Y4" s="4">
+      <c r="AD4" s="4">
         <f t="shared" si="7"/>
         <v>81551.601120347827</v>
       </c>
-      <c r="Z4" s="4">
+      <c r="AE4" s="4">
         <f t="shared" si="7"/>
         <v>90234.269994815666</v>
       </c>
-      <c r="AA4" s="4">
+      <c r="AF4" s="4">
         <f t="shared" si="7"/>
         <v>99827.406457724923</v>
       </c>
     </row>
-    <row r="5" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:62" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
@@ -2251,56 +2302,61 @@
         <v>3090</v>
       </c>
       <c r="M5" s="5"/>
-      <c r="N5" s="7" t="s">
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="O5" s="8">
+      <c r="T5" s="8">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5">
-        <f t="shared" ref="R5:R7" si="8">SUM(B5:E5)</f>
+      <c r="U5" s="8"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5">
+        <f t="shared" ref="W5:W7" si="8">SUM(B5:E5)</f>
         <v>7338</v>
       </c>
-      <c r="S5" s="5">
-        <f t="shared" ref="S5:S7" si="9">SUM(F5:I5)</f>
+      <c r="X5" s="5">
+        <f t="shared" ref="X5:X7" si="9">SUM(F5:I5)</f>
         <v>8674</v>
       </c>
-      <c r="T5" s="5">
-        <f>+S5*1.08</f>
+      <c r="Y5" s="5">
+        <f>+X5*1.08</f>
         <v>9367.92</v>
       </c>
-      <c r="U5" s="5">
-        <f t="shared" ref="U5:AA5" si="10">+T5*1.08</f>
+      <c r="Z5" s="5">
+        <f t="shared" ref="Z5:AF5" si="10">+Y5*1.08</f>
         <v>10117.3536</v>
       </c>
-      <c r="V5" s="5">
+      <c r="AA5" s="5">
         <f t="shared" si="10"/>
         <v>10926.741888</v>
       </c>
-      <c r="W5" s="5">
+      <c r="AB5" s="5">
         <f t="shared" si="10"/>
         <v>11800.881239040002</v>
       </c>
-      <c r="X5" s="5">
+      <c r="AC5" s="5">
         <f t="shared" si="10"/>
         <v>12744.951738163203</v>
       </c>
-      <c r="Y5" s="5">
+      <c r="AD5" s="5">
         <f t="shared" si="10"/>
         <v>13764.547877216261</v>
       </c>
-      <c r="Z5" s="5">
+      <c r="AE5" s="5">
         <f t="shared" si="10"/>
         <v>14865.711707393562</v>
       </c>
-      <c r="AA5" s="5">
+      <c r="AF5" s="5">
         <f t="shared" si="10"/>
         <v>16054.968643985048</v>
       </c>
     </row>
-    <row r="6" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:62" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
@@ -2338,59 +2394,64 @@
         <v>842</v>
       </c>
       <c r="M6" s="5"/>
-      <c r="N6" s="7" t="s">
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="O6" s="9">
-        <f>+NPV(O5,U13:BE13)</f>
+      <c r="T6" s="9">
+        <f>+NPV(T5,Z13:BJ13)</f>
         <v>727786.98397850525</v>
       </c>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="5" t="s">
+      <c r="U6" s="9"/>
+      <c r="V6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="R6" s="5">
+      <c r="W6" s="5">
         <f t="shared" si="8"/>
         <v>2440</v>
       </c>
-      <c r="S6" s="5">
+      <c r="X6" s="5">
         <f t="shared" si="9"/>
         <v>2655</v>
       </c>
-      <c r="T6" s="5">
-        <f>+S6*1.05</f>
+      <c r="Y6" s="5">
+        <f>+X6*1.05</f>
         <v>2787.75</v>
       </c>
-      <c r="U6" s="5">
-        <f t="shared" ref="U6:AA6" si="11">+T6*1.05</f>
+      <c r="Z6" s="5">
+        <f t="shared" ref="Z6:AF6" si="11">+Y6*1.05</f>
         <v>2927.1375000000003</v>
       </c>
-      <c r="V6" s="5">
+      <c r="AA6" s="5">
         <f t="shared" si="11"/>
         <v>3073.4943750000002</v>
       </c>
-      <c r="W6" s="5">
+      <c r="AB6" s="5">
         <f t="shared" si="11"/>
         <v>3227.1690937500002</v>
       </c>
-      <c r="X6" s="5">
+      <c r="AC6" s="5">
         <f t="shared" si="11"/>
         <v>3388.5275484375002</v>
       </c>
-      <c r="Y6" s="5">
+      <c r="AD6" s="5">
         <f t="shared" si="11"/>
         <v>3557.9539258593754</v>
       </c>
-      <c r="Z6" s="5">
+      <c r="AE6" s="5">
         <f t="shared" si="11"/>
         <v>3735.8516221523441</v>
       </c>
-      <c r="AA6" s="5">
+      <c r="AF6" s="5">
         <f t="shared" si="11"/>
         <v>3922.6442032599616</v>
       </c>
     </row>
-    <row r="7" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:62" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>28</v>
       </c>
@@ -2428,45 +2489,30 @@
         <v>0</v>
       </c>
       <c r="M7" s="5"/>
-      <c r="N7" s="7" t="s">
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="O7" s="5">
+      <c r="T7" s="5">
         <f>+J27</f>
         <v>18762</v>
       </c>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5">
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5">
         <f t="shared" si="8"/>
         <v>1353</v>
       </c>
-      <c r="S7" s="5">
+      <c r="X7" s="5">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="T7" s="5">
-        <f t="shared" ref="T7:AA7" si="12">+S7</f>
-        <v>0</v>
-      </c>
-      <c r="U7" s="5">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="V7" s="5">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="W7" s="5">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="X7" s="5">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
       <c r="Y7" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="Y7:AF7" si="12">+X7</f>
         <v>0</v>
       </c>
       <c r="Z7" s="5">
@@ -2477,8 +2523,28 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB7" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AC7" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AD7" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AE7" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AF7" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:62" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>30</v>
       </c>
@@ -2526,57 +2592,62 @@
         <v>4287</v>
       </c>
       <c r="M8" s="5"/>
-      <c r="N8" s="7" t="s">
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="O8" s="10">
-        <f>+O6+O7</f>
+      <c r="T8" s="10">
+        <f>+T6+T7</f>
         <v>746548.98397850525</v>
       </c>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5">
-        <f t="shared" ref="R8:AA8" si="14">+R5+R6+R7</f>
+      <c r="U8" s="10"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5">
+        <f t="shared" ref="W8:AF8" si="14">+W5+W6+W7</f>
         <v>11131</v>
       </c>
-      <c r="S8" s="5">
+      <c r="X8" s="5">
         <f t="shared" si="14"/>
         <v>11329</v>
       </c>
-      <c r="T8" s="5">
+      <c r="Y8" s="5">
         <f t="shared" si="14"/>
         <v>12155.67</v>
       </c>
-      <c r="U8" s="5">
+      <c r="Z8" s="5">
         <f t="shared" si="14"/>
         <v>13044.491100000001</v>
       </c>
-      <c r="V8" s="5">
+      <c r="AA8" s="5">
         <f t="shared" si="14"/>
         <v>14000.236263000001</v>
       </c>
-      <c r="W8" s="5">
+      <c r="AB8" s="5">
         <f t="shared" si="14"/>
         <v>15028.050332790002</v>
       </c>
-      <c r="X8" s="5">
+      <c r="AC8" s="5">
         <f t="shared" si="14"/>
         <v>16133.479286600703</v>
       </c>
-      <c r="Y8" s="5">
+      <c r="AD8" s="5">
         <f t="shared" si="14"/>
         <v>17322.501803075636</v>
       </c>
-      <c r="Z8" s="5">
+      <c r="AE8" s="5">
         <f t="shared" si="14"/>
         <v>18601.563329545905</v>
       </c>
-      <c r="AA8" s="5">
+      <c r="AF8" s="5">
         <f t="shared" si="14"/>
         <v>19977.612847245011</v>
       </c>
     </row>
-    <row r="9" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:62" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
@@ -2625,59 +2696,64 @@
         <v>23247</v>
       </c>
       <c r="M9" s="4"/>
-      <c r="N9" s="7" t="s">
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="O9" s="11">
-        <f>+O8/main!M6</f>
+      <c r="T9" s="11">
+        <f>+T8/main!M6</f>
         <v>303.47519673922977</v>
       </c>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="4" t="s">
+      <c r="U9" s="11"/>
+      <c r="V9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="R9" s="4">
-        <f t="shared" ref="R9:AA9" si="17">+R4-R8</f>
+      <c r="W9" s="4">
+        <f t="shared" ref="W9:AF9" si="17">+W4-W8</f>
         <v>4225</v>
       </c>
-      <c r="S9" s="4">
+      <c r="X9" s="4">
         <f t="shared" si="17"/>
         <v>32972</v>
       </c>
-      <c r="T9" s="4">
+      <c r="Y9" s="4">
         <f t="shared" si="17"/>
         <v>36907.850000000013</v>
       </c>
-      <c r="U9" s="4">
+      <c r="Z9" s="4">
         <f t="shared" si="17"/>
         <v>41284.394500000024</v>
       </c>
-      <c r="V9" s="4">
+      <c r="AA9" s="4">
         <f t="shared" si="17"/>
         <v>46149.272585000028</v>
       </c>
-      <c r="W9" s="4">
+      <c r="AB9" s="4">
         <f t="shared" si="17"/>
         <v>51555.162863050027</v>
       </c>
-      <c r="X9" s="4">
+      <c r="AC9" s="4">
         <f t="shared" si="17"/>
         <v>57560.308968906538</v>
       </c>
-      <c r="Y9" s="4">
+      <c r="AD9" s="4">
         <f t="shared" si="17"/>
         <v>64229.099317272194</v>
       </c>
-      <c r="Z9" s="4">
+      <c r="AE9" s="4">
         <f t="shared" si="17"/>
         <v>71632.706665269769</v>
       </c>
-      <c r="AA9" s="4">
+      <c r="AF9" s="4">
         <f t="shared" si="17"/>
         <v>79849.793610479916</v>
       </c>
     </row>
-    <row r="10" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:62" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>34</v>
       </c>
@@ -2726,59 +2802,64 @@
         <v>572</v>
       </c>
       <c r="M10" s="5"/>
-      <c r="N10" s="7" t="s">
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="O10" s="5">
+      <c r="T10" s="5">
         <f>+main!M5</f>
         <v>130</v>
       </c>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5" t="s">
+      <c r="U10" s="5"/>
+      <c r="V10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="R10" s="5">
+      <c r="W10" s="5">
         <f>SUM(B10:E10)</f>
         <v>-43</v>
       </c>
-      <c r="S10" s="5">
+      <c r="X10" s="5">
         <f>SUM(F10:I10)</f>
         <v>846</v>
       </c>
-      <c r="T10" s="5">
-        <f>+S27*$O$3</f>
+      <c r="Y10" s="5">
+        <f>+X27*$T$3</f>
         <v>162.75</v>
       </c>
-      <c r="U10" s="5">
-        <f t="shared" ref="U10:AA10" si="18">+T27*$O$3</f>
+      <c r="Z10" s="5">
+        <f t="shared" ref="Z10:AF10" si="18">+Y27*$T$3</f>
         <v>481.55716000000018</v>
       </c>
-      <c r="V10" s="5">
+      <c r="AA10" s="5">
         <f t="shared" si="18"/>
         <v>840.74434427600033</v>
       </c>
-      <c r="W10" s="5">
+      <c r="AB10" s="5">
         <f t="shared" si="18"/>
         <v>1244.8584898677743</v>
       </c>
-      <c r="X10" s="5">
+      <c r="AC10" s="5">
         <f t="shared" si="18"/>
         <v>1698.9386735028672</v>
       </c>
-      <c r="Y10" s="5">
+      <c r="AD10" s="5">
         <f t="shared" si="18"/>
         <v>2208.5682032275881</v>
       </c>
-      <c r="Z10" s="5">
+      <c r="AE10" s="5">
         <f t="shared" si="18"/>
         <v>2779.9321439038863</v>
       </c>
-      <c r="AA10" s="5">
+      <c r="AF10" s="5">
         <f t="shared" si="18"/>
         <v>3419.8808376627799</v>
       </c>
     </row>
-    <row r="11" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:62" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>36</v>
       </c>
@@ -2827,57 +2908,62 @@
         <v>23819</v>
       </c>
       <c r="M11" s="5"/>
-      <c r="N11" s="7" t="s">
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="O11" s="8">
-        <f>+O9/O10-1</f>
+      <c r="T11" s="8">
+        <f>+T9/T10-1</f>
         <v>1.3344245903017673</v>
       </c>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5">
-        <f t="shared" ref="R11:S11" si="21">+R9+R10</f>
+      <c r="U11" s="8"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5">
+        <f t="shared" ref="W11:X11" si="21">+W9+W10</f>
         <v>4182</v>
       </c>
-      <c r="S11" s="5">
+      <c r="X11" s="5">
         <f t="shared" si="21"/>
         <v>33818</v>
       </c>
-      <c r="T11" s="5">
-        <f>+T9+T10</f>
+      <c r="Y11" s="5">
+        <f>+Y9+Y10</f>
         <v>37070.600000000013</v>
       </c>
-      <c r="U11" s="5">
-        <f t="shared" ref="U11:AA11" si="22">+U9+U10</f>
+      <c r="Z11" s="5">
+        <f t="shared" ref="Z11:AF11" si="22">+Z9+Z10</f>
         <v>41765.951660000021</v>
       </c>
-      <c r="V11" s="5">
+      <c r="AA11" s="5">
         <f t="shared" si="22"/>
         <v>46990.016929276026</v>
       </c>
-      <c r="W11" s="5">
+      <c r="AB11" s="5">
         <f t="shared" si="22"/>
         <v>52800.0213529178</v>
       </c>
-      <c r="X11" s="5">
+      <c r="AC11" s="5">
         <f t="shared" si="22"/>
         <v>59259.247642409406</v>
       </c>
-      <c r="Y11" s="5">
+      <c r="AD11" s="5">
         <f t="shared" si="22"/>
         <v>66437.667520499788</v>
       </c>
-      <c r="Z11" s="5">
+      <c r="AE11" s="5">
         <f t="shared" si="22"/>
         <v>74412.638809173659</v>
       </c>
-      <c r="AA11" s="5">
+      <c r="AF11" s="5">
         <f t="shared" si="22"/>
         <v>83269.674448142701</v>
       </c>
     </row>
-    <row r="12" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:62" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>38</v>
       </c>
@@ -2919,48 +3005,53 @@
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
-      <c r="R12" s="5">
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5">
         <f>SUM(B12:E12)</f>
         <v>-186</v>
       </c>
-      <c r="S12" s="5">
+      <c r="X12" s="5">
         <f>SUM(F12:I12)</f>
         <v>4059</v>
       </c>
-      <c r="T12" s="5">
-        <f t="shared" ref="T12" si="23">+T11*0.14</f>
+      <c r="Y12" s="5">
+        <f t="shared" ref="Y12" si="23">+Y11*0.14</f>
         <v>5189.8840000000027</v>
       </c>
-      <c r="U12" s="5">
-        <f t="shared" ref="U12:AA12" si="24">+U11*0.14</f>
+      <c r="Z12" s="5">
+        <f t="shared" ref="Z12:AF12" si="24">+Z11*0.14</f>
         <v>5847.2332324000035</v>
       </c>
-      <c r="V12" s="5">
+      <c r="AA12" s="5">
         <f t="shared" si="24"/>
         <v>6578.6023700986443</v>
       </c>
-      <c r="W12" s="5">
+      <c r="AB12" s="5">
         <f t="shared" si="24"/>
         <v>7392.0029894084928</v>
       </c>
-      <c r="X12" s="5">
+      <c r="AC12" s="5">
         <f t="shared" si="24"/>
         <v>8296.2946699373169</v>
       </c>
-      <c r="Y12" s="5">
+      <c r="AD12" s="5">
         <f t="shared" si="24"/>
         <v>9301.2734528699712</v>
       </c>
-      <c r="Z12" s="5">
+      <c r="AE12" s="5">
         <f t="shared" si="24"/>
         <v>10417.769433284313</v>
       </c>
-      <c r="AA12" s="5">
+      <c r="AF12" s="5">
         <f t="shared" si="24"/>
         <v>11657.754422739979</v>
       </c>
     </row>
-    <row r="13" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:62" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>39</v>
       </c>
@@ -3010,172 +3101,177 @@
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
-      <c r="P13" s="4" t="s">
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4">
-        <f t="shared" ref="R13:T13" si="26">+R11-R12</f>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4">
+        <f t="shared" ref="W13:Y13" si="26">+W11-W12</f>
         <v>4368</v>
       </c>
-      <c r="S13" s="4">
+      <c r="X13" s="4">
         <f t="shared" si="26"/>
         <v>29759</v>
       </c>
-      <c r="T13" s="4">
+      <c r="Y13" s="4">
         <f t="shared" si="26"/>
         <v>31880.716000000011</v>
       </c>
-      <c r="U13" s="4">
-        <f t="shared" ref="U13:AA13" si="27">+U11-U12</f>
+      <c r="Z13" s="4">
+        <f t="shared" ref="Z13:AF13" si="27">+Z11-Z12</f>
         <v>35918.718427600019</v>
       </c>
-      <c r="V13" s="4">
+      <c r="AA13" s="4">
         <f t="shared" si="27"/>
         <v>40411.414559177385</v>
       </c>
-      <c r="W13" s="4">
+      <c r="AB13" s="4">
         <f t="shared" si="27"/>
         <v>45408.018363509305</v>
       </c>
-      <c r="X13" s="4">
+      <c r="AC13" s="4">
         <f t="shared" si="27"/>
         <v>50962.952972472092</v>
       </c>
-      <c r="Y13" s="4">
+      <c r="AD13" s="4">
         <f t="shared" si="27"/>
         <v>57136.394067629815</v>
       </c>
-      <c r="Z13" s="4">
+      <c r="AE13" s="4">
         <f t="shared" si="27"/>
         <v>63994.86937588935</v>
       </c>
-      <c r="AA13" s="4">
+      <c r="AF13" s="4">
         <f t="shared" si="27"/>
         <v>71611.920025402724</v>
       </c>
-      <c r="AB13" s="4">
-        <f>+AA13*0.99</f>
+      <c r="AG13" s="4">
+        <f>+AF13*0.99</f>
         <v>70895.80082514869</v>
       </c>
-      <c r="AC13" s="4">
-        <f t="shared" ref="AC13:BE13" si="28">+AB13*0.99</f>
+      <c r="AH13" s="4">
+        <f t="shared" ref="AH13:BJ13" si="28">+AG13*0.99</f>
         <v>70186.842816897202</v>
       </c>
-      <c r="AD13" s="4">
+      <c r="AI13" s="4">
         <f t="shared" si="28"/>
         <v>69484.974388728224</v>
       </c>
-      <c r="AE13" s="4">
+      <c r="AJ13" s="4">
         <f t="shared" si="28"/>
         <v>68790.124644840937</v>
       </c>
-      <c r="AF13" s="4">
+      <c r="AK13" s="4">
         <f t="shared" si="28"/>
         <v>68102.223398392525</v>
       </c>
-      <c r="AG13" s="4">
+      <c r="AL13" s="4">
         <f t="shared" si="28"/>
         <v>67421.201164408601</v>
       </c>
-      <c r="AH13" s="4">
+      <c r="AM13" s="4">
         <f t="shared" si="28"/>
         <v>66746.989152764509</v>
       </c>
-      <c r="AI13" s="4">
+      <c r="AN13" s="4">
         <f t="shared" si="28"/>
         <v>66079.51926123687</v>
       </c>
-      <c r="AJ13" s="4">
+      <c r="AO13" s="4">
         <f t="shared" si="28"/>
         <v>65418.724068624499</v>
       </c>
-      <c r="AK13" s="4">
+      <c r="AP13" s="4">
         <f t="shared" si="28"/>
         <v>64764.536827938253</v>
       </c>
-      <c r="AL13" s="4">
+      <c r="AQ13" s="4">
         <f t="shared" si="28"/>
         <v>64116.891459658873</v>
       </c>
-      <c r="AM13" s="4">
+      <c r="AR13" s="4">
         <f t="shared" si="28"/>
         <v>63475.722545062286</v>
       </c>
-      <c r="AN13" s="4">
+      <c r="AS13" s="4">
         <f t="shared" si="28"/>
         <v>62840.965319611663</v>
       </c>
-      <c r="AO13" s="4">
+      <c r="AT13" s="4">
         <f t="shared" si="28"/>
         <v>62212.555666415545</v>
       </c>
-      <c r="AP13" s="4">
+      <c r="AU13" s="4">
         <f t="shared" si="28"/>
         <v>61590.430109751389</v>
       </c>
-      <c r="AQ13" s="4">
+      <c r="AV13" s="4">
         <f t="shared" si="28"/>
         <v>60974.525808653874</v>
       </c>
-      <c r="AR13" s="4">
+      <c r="AW13" s="4">
         <f t="shared" si="28"/>
         <v>60364.780550567331</v>
       </c>
-      <c r="AS13" s="4">
+      <c r="AX13" s="4">
         <f t="shared" si="28"/>
         <v>59761.132745061659</v>
       </c>
-      <c r="AT13" s="4">
+      <c r="AY13" s="4">
         <f t="shared" si="28"/>
         <v>59163.521417611038</v>
       </c>
-      <c r="AU13" s="4">
+      <c r="AZ13" s="4">
         <f t="shared" si="28"/>
         <v>58571.886203434929</v>
       </c>
-      <c r="AV13" s="4">
+      <c r="BA13" s="4">
         <f t="shared" si="28"/>
         <v>57986.167341400578</v>
       </c>
-      <c r="AW13" s="4">
+      <c r="BB13" s="4">
         <f t="shared" si="28"/>
         <v>57406.305667986569</v>
       </c>
-      <c r="AX13" s="4">
+      <c r="BC13" s="4">
         <f t="shared" si="28"/>
         <v>56832.242611306705</v>
       </c>
-      <c r="AY13" s="4">
+      <c r="BD13" s="4">
         <f t="shared" si="28"/>
         <v>56263.920185193638</v>
       </c>
-      <c r="AZ13" s="4">
+      <c r="BE13" s="4">
         <f t="shared" si="28"/>
         <v>55701.280983341698</v>
       </c>
-      <c r="BA13" s="4">
+      <c r="BF13" s="4">
         <f t="shared" si="28"/>
         <v>55144.268173508281</v>
       </c>
-      <c r="BB13" s="4">
+      <c r="BG13" s="4">
         <f t="shared" si="28"/>
         <v>54592.825491773197</v>
       </c>
-      <c r="BC13" s="4">
+      <c r="BH13" s="4">
         <f t="shared" si="28"/>
         <v>54046.897236855468</v>
       </c>
-      <c r="BD13" s="4">
+      <c r="BI13" s="4">
         <f t="shared" si="28"/>
         <v>53506.428264486909</v>
       </c>
-      <c r="BE13" s="4">
+      <c r="BJ13" s="4">
         <f t="shared" si="28"/>
         <v>52971.363981842042</v>
       </c>
     </row>
-    <row r="14" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:62" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>40</v>
       </c>
@@ -3224,52 +3320,57 @@
         <v>0.78562128733013259</v>
       </c>
       <c r="M14" s="12"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="12">
-        <f t="shared" ref="R14:AA14" si="31">+R13/R15</f>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="12">
+        <f t="shared" ref="W14:AF14" si="31">+W13/W15</f>
         <v>1.7563329312424607</v>
       </c>
-      <c r="S14" s="12">
+      <c r="X14" s="12">
         <f t="shared" si="31"/>
         <v>12.051837602510885</v>
       </c>
-      <c r="T14" s="12">
+      <c r="Y14" s="12">
         <f t="shared" si="31"/>
         <v>12.911092841956064</v>
       </c>
-      <c r="U14" s="12">
+      <c r="Z14" s="12">
         <f t="shared" si="31"/>
         <v>14.546408191799136</v>
       </c>
-      <c r="V14" s="12">
+      <c r="AA14" s="12">
         <f t="shared" si="31"/>
         <v>16.365865975165491</v>
       </c>
-      <c r="W14" s="12">
+      <c r="AB14" s="12">
         <f t="shared" si="31"/>
         <v>18.389396927613365</v>
       </c>
-      <c r="X14" s="12">
+      <c r="AC14" s="12">
         <f t="shared" si="31"/>
         <v>20.639041398186531</v>
       </c>
-      <c r="Y14" s="12">
+      <c r="AD14" s="12">
         <f t="shared" si="31"/>
         <v>23.139169410804826</v>
       </c>
-      <c r="Z14" s="12">
+      <c r="AE14" s="12">
         <f t="shared" si="31"/>
         <v>25.916723448775681</v>
       </c>
-      <c r="AA14" s="12">
+      <c r="AF14" s="12">
         <f t="shared" si="31"/>
         <v>29.001486291547121</v>
       </c>
     </row>
-    <row r="15" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:62" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>41</v>
       </c>
@@ -3311,36 +3412,21 @@
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
-      <c r="R15" s="5">
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5">
         <f>AVERAGE(B15:E15)</f>
         <v>2487</v>
       </c>
-      <c r="S15" s="5">
+      <c r="X15" s="5">
         <f>AVERAGE(F15:I15)</f>
         <v>2469.25</v>
       </c>
-      <c r="T15" s="5">
-        <f t="shared" ref="T15:AA15" si="32">+S15</f>
-        <v>2469.25</v>
-      </c>
-      <c r="U15" s="5">
-        <f t="shared" si="32"/>
-        <v>2469.25</v>
-      </c>
-      <c r="V15" s="5">
-        <f t="shared" si="32"/>
-        <v>2469.25</v>
-      </c>
-      <c r="W15" s="5">
-        <f t="shared" si="32"/>
-        <v>2469.25</v>
-      </c>
-      <c r="X15" s="5">
-        <f t="shared" si="32"/>
-        <v>2469.25</v>
-      </c>
       <c r="Y15" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" ref="Y15:AF15" si="32">+X15</f>
         <v>2469.25</v>
       </c>
       <c r="Z15" s="5">
@@ -3351,13 +3437,33 @@
         <f t="shared" si="32"/>
         <v>2469.25</v>
       </c>
-    </row>
-    <row r="16" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="T16" t="s">
+      <c r="AB15" s="5">
+        <f t="shared" si="32"/>
+        <v>2469.25</v>
+      </c>
+      <c r="AC15" s="5">
+        <f t="shared" si="32"/>
+        <v>2469.25</v>
+      </c>
+      <c r="AD15" s="5">
+        <f t="shared" si="32"/>
+        <v>2469.25</v>
+      </c>
+      <c r="AE15" s="5">
+        <f t="shared" si="32"/>
+        <v>2469.25</v>
+      </c>
+      <c r="AF15" s="5">
+        <f t="shared" si="32"/>
+        <v>2469.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:62" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>42</v>
       </c>
@@ -3406,48 +3512,53 @@
         <v>0.78668571428571432</v>
       </c>
       <c r="M17" s="8"/>
-      <c r="R17" s="8">
-        <f t="shared" ref="R17:AA17" si="35">+R4/R2</f>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="W17" s="8">
+        <f t="shared" ref="W17:AF17" si="35">+W4/W2</f>
         <v>0.56928894490991322</v>
       </c>
-      <c r="S17" s="8">
+      <c r="X17" s="8">
         <f t="shared" si="35"/>
         <v>0.72717573290436954</v>
       </c>
-      <c r="T17" s="8">
+      <c r="Y17" s="8">
         <f t="shared" si="35"/>
         <v>0.73213617412429011</v>
       </c>
-      <c r="U17" s="8">
+      <c r="Z17" s="8">
         <f t="shared" si="35"/>
         <v>0.73700642550384854</v>
       </c>
-      <c r="V17" s="8">
+      <c r="AA17" s="8">
         <f t="shared" si="35"/>
         <v>0.74178812685832396</v>
       </c>
-      <c r="W17" s="8">
+      <c r="AB17" s="8">
         <f t="shared" si="35"/>
         <v>0.74648288818817266</v>
       </c>
-      <c r="X17" s="8">
+      <c r="AC17" s="8">
         <f t="shared" si="35"/>
         <v>0.7510922902211149</v>
       </c>
-      <c r="Y17" s="8">
+      <c r="AD17" s="8">
         <f t="shared" si="35"/>
         <v>0.75561788494436744</v>
       </c>
-      <c r="Z17" s="8">
+      <c r="AE17" s="8">
         <f t="shared" si="35"/>
         <v>0.76006119612719714</v>
       </c>
-      <c r="AA17" s="8">
+      <c r="AF17" s="8">
         <f t="shared" si="35"/>
         <v>0.76442371983397528</v>
       </c>
     </row>
-    <row r="18" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>43</v>
       </c>
@@ -3496,48 +3607,53 @@
         <v>8.8285714285714287E-2</v>
       </c>
       <c r="M18" s="8"/>
-      <c r="R18" s="8">
-        <f t="shared" ref="R18:AA18" si="38">+R5/R2</f>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="W18" s="8">
+        <f t="shared" ref="W18:AF18" si="38">+W5/W2</f>
         <v>0.27203974197375252</v>
       </c>
-      <c r="S18" s="8">
+      <c r="X18" s="8">
         <f t="shared" si="38"/>
         <v>0.14237877942286858</v>
       </c>
-      <c r="T18" s="8">
+      <c r="Y18" s="8">
         <f t="shared" si="38"/>
         <v>0.13979007434245277</v>
       </c>
-      <c r="U18" s="8">
+      <c r="Z18" s="8">
         <f t="shared" si="38"/>
         <v>0.13724843662713543</v>
       </c>
-      <c r="V18" s="8">
+      <c r="AA18" s="8">
         <f t="shared" si="38"/>
         <v>0.13475301050664207</v>
       </c>
-      <c r="W18" s="8">
+      <c r="AB18" s="8">
         <f t="shared" si="38"/>
         <v>0.13230295577015766</v>
       </c>
-      <c r="X18" s="8">
+      <c r="AC18" s="8">
         <f t="shared" si="38"/>
         <v>0.12989744748342752</v>
       </c>
-      <c r="Y18" s="8">
+      <c r="AD18" s="8">
         <f t="shared" si="38"/>
         <v>0.12753567571100158</v>
       </c>
-      <c r="Z18" s="8">
+      <c r="AE18" s="8">
         <f t="shared" si="38"/>
         <v>0.12521684524352883</v>
       </c>
-      <c r="AA18" s="8">
+      <c r="AF18" s="8">
         <f t="shared" si="38"/>
         <v>0.1229401753300101</v>
       </c>
     </row>
-    <row r="19" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>44</v>
       </c>
@@ -3586,48 +3702,53 @@
         <v>2.4057142857142857E-2</v>
       </c>
       <c r="M19" s="8"/>
-      <c r="R19" s="8">
-        <f t="shared" ref="R19:AA19" si="41">+R6/R2</f>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="W19" s="8">
+        <f t="shared" ref="W19:AF19" si="41">+W6/W2</f>
         <v>9.0457477570994288E-2</v>
       </c>
-      <c r="S19" s="8">
+      <c r="X19" s="8">
         <f t="shared" si="41"/>
         <v>4.3580315813663374E-2</v>
       </c>
-      <c r="T19" s="8">
+      <c r="Y19" s="8">
         <f t="shared" si="41"/>
         <v>4.1599392367587758E-2</v>
       </c>
-      <c r="U19" s="8">
+      <c r="Z19" s="8">
         <f t="shared" si="41"/>
         <v>3.9708510896333767E-2</v>
       </c>
-      <c r="V19" s="8">
+      <c r="AA19" s="8">
         <f t="shared" si="41"/>
         <v>3.7903578582864049E-2</v>
       </c>
-      <c r="W19" s="8">
+      <c r="AB19" s="8">
         <f t="shared" si="41"/>
         <v>3.6180688647279316E-2</v>
       </c>
-      <c r="X19" s="8">
+      <c r="AC19" s="8">
         <f t="shared" si="41"/>
         <v>3.4536111890584795E-2</v>
       </c>
-      <c r="Y19" s="8">
+      <c r="AD19" s="8">
         <f t="shared" si="41"/>
         <v>3.2966288622830943E-2</v>
       </c>
-      <c r="Z19" s="8">
+      <c r="AE19" s="8">
         <f t="shared" si="41"/>
         <v>3.1467820958156804E-2</v>
       </c>
-      <c r="AA19" s="8">
+      <c r="AF19" s="8">
         <f t="shared" si="41"/>
         <v>3.0037465460058772E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>45</v>
       </c>
@@ -3676,48 +3797,53 @@
         <v>0.66420000000000001</v>
       </c>
       <c r="M20" s="8"/>
-      <c r="R20" s="8">
-        <f t="shared" ref="R20:AA20" si="44">+R9/R2</f>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="W20" s="8">
+        <f t="shared" ref="W20:AF20" si="44">+W9/W2</f>
         <v>0.15663231259731594</v>
       </c>
-      <c r="S20" s="8">
+      <c r="X20" s="8">
         <f t="shared" si="44"/>
         <v>0.54121663766783756</v>
       </c>
-      <c r="T20" s="8">
+      <c r="Y20" s="8">
         <f t="shared" si="44"/>
         <v>0.55074670741424958</v>
       </c>
-      <c r="U20" s="8">
+      <c r="Z20" s="8">
         <f t="shared" si="44"/>
         <v>0.5600494779803793</v>
       </c>
-      <c r="V20" s="8">
+      <c r="AA20" s="8">
         <f t="shared" si="44"/>
         <v>0.56913153776881786</v>
       </c>
-      <c r="W20" s="8">
+      <c r="AB20" s="8">
         <f t="shared" si="44"/>
         <v>0.57799924377073564</v>
       </c>
-      <c r="X20" s="8">
+      <c r="AC20" s="8">
         <f t="shared" si="44"/>
         <v>0.58665873084710263</v>
       </c>
-      <c r="Y20" s="8">
+      <c r="AD20" s="8">
         <f t="shared" si="44"/>
         <v>0.59511592061053498</v>
       </c>
-      <c r="Z20" s="8">
+      <c r="AE20" s="8">
         <f t="shared" si="44"/>
         <v>0.60337652992551161</v>
       </c>
-      <c r="AA20" s="8">
+      <c r="AF20" s="8">
         <f t="shared" si="44"/>
         <v>0.61144607904390647</v>
       </c>
     </row>
-    <row r="21" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>46</v>
       </c>
@@ -3766,33 +3892,18 @@
         <v>0.10978630505058987</v>
       </c>
       <c r="M21" s="8"/>
-      <c r="R21" s="8">
-        <f t="shared" ref="R21:AA21" si="47">+R12/R11</f>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="W21" s="8">
+        <f t="shared" ref="W21:AF21" si="47">+W12/W11</f>
         <v>-4.4476327116212341E-2</v>
       </c>
-      <c r="S21" s="8">
+      <c r="X21" s="8">
         <f t="shared" si="47"/>
         <v>0.12002483884321959</v>
-      </c>
-      <c r="T21" s="8">
-        <f t="shared" si="47"/>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="U21" s="8">
-        <f t="shared" si="47"/>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="V21" s="8">
-        <f t="shared" si="47"/>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="W21" s="8">
-        <f t="shared" si="47"/>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="X21" s="8">
-        <f t="shared" si="47"/>
-        <v>0.14000000000000001</v>
       </c>
       <c r="Y21" s="8">
         <f t="shared" si="47"/>
@@ -3806,8 +3917,28 @@
         <f t="shared" si="47"/>
         <v>0.14000000000000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB21" s="8">
+        <f t="shared" si="47"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AC21" s="8">
+        <f t="shared" si="47"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AD21" s="8">
+        <f t="shared" si="47"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AE21" s="8">
+        <f t="shared" si="47"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AF21" s="8">
+        <f t="shared" si="47"/>
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>47</v>
       </c>
@@ -3856,49 +3987,54 @@
         <v>0.70127841940873104</v>
       </c>
       <c r="M22" s="8"/>
-      <c r="R22" s="8">
-        <f t="shared" ref="R22:AA22" si="50">+R13/R4</f>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="W22" s="8">
+        <f t="shared" ref="W22:AF22" si="50">+W13/W4</f>
         <v>0.28444907528002084</v>
       </c>
-      <c r="S22" s="8">
+      <c r="X22" s="8">
         <f t="shared" si="50"/>
         <v>0.67174555879099795</v>
       </c>
-      <c r="T22" s="8">
-        <f>+T10/T4</f>
+      <c r="Y22" s="8">
+        <f>+Y10/Y4</f>
         <v>3.3171284897618425E-3</v>
       </c>
-      <c r="U22" s="8">
+      <c r="Z22" s="8">
         <f t="shared" si="50"/>
         <v>0.66113482783456912</v>
       </c>
-      <c r="V22" s="8">
+      <c r="AA22" s="8">
         <f t="shared" si="50"/>
         <v>0.67184945202625812</v>
       </c>
-      <c r="W22" s="8">
+      <c r="AB22" s="8">
         <f t="shared" si="50"/>
         <v>0.68197397187713826</v>
       </c>
-      <c r="X22" s="8">
+      <c r="AC22" s="8">
         <f t="shared" si="50"/>
         <v>0.69155018596378859</v>
       </c>
-      <c r="Y22" s="8">
+      <c r="AD22" s="8">
         <f t="shared" si="50"/>
         <v>0.70061645979595355</v>
       </c>
-      <c r="Z22" s="8">
+      <c r="AE22" s="8">
         <f t="shared" si="50"/>
         <v>0.70920803570047297</v>
       </c>
-      <c r="AA22" s="8">
+      <c r="AF22" s="8">
         <f t="shared" si="50"/>
         <v>0.71735731265070035</v>
       </c>
     </row>
-    <row r="23" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>48</v>
       </c>
@@ -3929,39 +4065,19 @@
         <f t="shared" si="51"/>
         <v>1.2240319834160065</v>
       </c>
-      <c r="N24" s="2" t="s">
+      <c r="S24" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="O24" s="2" t="s">
+      <c r="T24" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2" t="s">
+      <c r="U24" s="2"/>
+      <c r="V24" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="S24" s="8">
-        <f t="shared" ref="S24:AA24" si="52">+S2/R2-1</f>
+      <c r="X24" s="8">
+        <f t="shared" ref="X24:AF24" si="52">+X2/W2-1</f>
         <v>1.2585452658115224</v>
-      </c>
-      <c r="T24" s="8">
-        <f t="shared" si="52"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="U24" s="8">
-        <f t="shared" si="52"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="V24" s="8">
-        <f t="shared" si="52"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="W24" s="8">
-        <f t="shared" si="52"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="X24" s="8">
-        <f t="shared" si="52"/>
-        <v>0.10000000000000009</v>
       </c>
       <c r="Y24" s="8">
         <f t="shared" si="52"/>
@@ -3975,9 +4091,29 @@
         <f t="shared" si="52"/>
         <v>0.10000000000000009</v>
       </c>
-    </row>
-    <row r="25" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB24" s="8">
+        <f t="shared" si="52"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="AC24" s="8">
+        <f t="shared" si="52"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="AD24" s="8">
+        <f t="shared" si="52"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="AE24" s="8">
+        <f t="shared" si="52"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="AF24" s="8">
+        <f t="shared" si="52"/>
+        <v>0.10000000000000009</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>50</v>
       </c>
@@ -4005,11 +4141,11 @@
         <f t="shared" si="53"/>
         <v>0.79314572007248696</v>
       </c>
-      <c r="R26" s="2" t="s">
+      <c r="W26" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>51</v>
       </c>
@@ -4044,65 +4180,70 @@
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
-      <c r="O27" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="O27" s="3"/>
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
-      <c r="R27" s="4">
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="4">
         <f>+E27</f>
         <v>2343</v>
       </c>
-      <c r="S27" s="4">
+      <c r="X27" s="4">
         <f>+I27</f>
         <v>16275</v>
       </c>
-      <c r="T27" s="4">
-        <f>+S27+T13</f>
+      <c r="Y27" s="4">
+        <f>+X27+Y13</f>
         <v>48155.716000000015</v>
       </c>
-      <c r="U27" s="4">
-        <f t="shared" ref="U27:AA27" si="55">+T27+U13</f>
+      <c r="Z27" s="4">
+        <f t="shared" ref="Z27:AF27" si="55">+Y27+Z13</f>
         <v>84074.434427600034</v>
       </c>
-      <c r="V27" s="4">
+      <c r="AA27" s="4">
         <f t="shared" si="55"/>
         <v>124485.84898677742</v>
       </c>
-      <c r="W27" s="4">
+      <c r="AB27" s="4">
         <f t="shared" si="55"/>
         <v>169893.86735028672</v>
       </c>
-      <c r="X27" s="4">
+      <c r="AC27" s="4">
         <f t="shared" si="55"/>
         <v>220856.82032275881</v>
       </c>
-      <c r="Y27" s="4">
+      <c r="AD27" s="4">
         <f t="shared" si="55"/>
         <v>277993.21439038863</v>
       </c>
-      <c r="Z27" s="4">
+      <c r="AE27" s="4">
         <f t="shared" si="55"/>
         <v>341988.083766278</v>
       </c>
-      <c r="AA27" s="4">
+      <c r="AF27" s="4">
         <f t="shared" si="55"/>
         <v>413600.00379168073</v>
       </c>
     </row>
-    <row r="28" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F28" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J28" s="5"/>
-      <c r="R28" s="2" t="s">
+      <c r="W28" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="T28" s="5" t="s">
+      <c r="Y28" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>5</v>
       </c>
@@ -4127,7 +4268,7 @@
         <v>31438</v>
       </c>
     </row>
-    <row r="30" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>52</v>
       </c>
@@ -4149,11 +4290,11 @@
       <c r="J30" s="5">
         <v>12365</v>
       </c>
-      <c r="R30" s="2" t="s">
+      <c r="W30" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>53</v>
       </c>
@@ -4176,7 +4317,7 @@
         <v>5864</v>
       </c>
     </row>
-    <row r="32" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>54</v>
       </c>
@@ -4199,7 +4340,7 @@
         <v>4062</v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>55</v>
       </c>
@@ -4222,7 +4363,7 @@
         <v>4006</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>56</v>
       </c>
@@ -4245,7 +4386,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>57</v>
       </c>
@@ -4274,7 +4415,7 @@
         <v>5439</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>58</v>
       </c>
@@ -4297,7 +4438,7 @@
         <v>7798</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>59</v>
       </c>
@@ -4320,7 +4461,7 @@
         <v>4568</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>60</v>
       </c>
@@ -4351,16 +4492,16 @@
         <f t="shared" si="56"/>
         <v>77072</v>
       </c>
-      <c r="R38" s="4"/>
-      <c r="S38" s="4"/>
-    </row>
-    <row r="39" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W38" s="4"/>
+      <c r="X38" s="4"/>
+    </row>
+    <row r="39" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F39" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J39" s="5"/>
     </row>
-    <row r="40" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>6</v>
       </c>
@@ -4389,7 +4530,7 @@
         <v>12676</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>61</v>
       </c>
@@ -4412,7 +4553,7 @@
         <v>2715</v>
       </c>
     </row>
-    <row r="42" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>62</v>
       </c>
@@ -4435,7 +4576,7 @@
         <v>11258</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>63</v>
       </c>
@@ -4458,7 +4599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>64</v>
       </c>
@@ -4481,7 +4622,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>65</v>
       </c>
@@ -4512,13 +4653,13 @@
         <f t="shared" si="57"/>
         <v>27930</v>
       </c>
-      <c r="R45" s="4"/>
-      <c r="S45" s="4"/>
-    </row>
-    <row r="46" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W45" s="4"/>
+      <c r="X45" s="4"/>
+    </row>
+    <row r="46" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J46" s="5"/>
     </row>
-    <row r="47" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>66</v>
       </c>
@@ -4549,15 +4690,15 @@
         <f t="shared" si="58"/>
         <v>49142</v>
       </c>
-      <c r="N47" s="2" t="s">
+      <c r="S47" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="R47" s="4" t="s">
+      <c r="W47" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="S47" s="4"/>
-    </row>
-    <row r="48" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X47" s="4"/>
+    </row>
+    <row r="48" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>68</v>
       </c>
@@ -4590,17 +4731,17 @@
         <f t="shared" si="59"/>
         <v>77072</v>
       </c>
-      <c r="R48" s="4" t="s">
+      <c r="W48" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="S48" s="4"/>
-    </row>
-    <row r="49" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="T49" s="2" t="s">
+      <c r="X48" s="4"/>
+    </row>
+    <row r="49" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y49" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>70</v>
       </c>
@@ -4628,14 +4769,14 @@
         <f t="shared" si="60"/>
         <v>0.19307919867137222</v>
       </c>
-      <c r="R50" s="8" t="s">
+      <c r="W50" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="S50" s="8" t="s">
+      <c r="X50" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>71</v>
       </c>
@@ -4663,18 +4804,18 @@
         <f t="shared" si="61"/>
         <v>0.30281632819177079</v>
       </c>
-      <c r="R51" s="8" t="s">
+      <c r="W51" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="S51" s="8" t="s">
+      <c r="X51" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="T51" s="2" t="s">
+      <c r="Y51" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="13" t="s">
         <v>83</v>
       </c>
@@ -4682,8 +4823,13 @@
         <f>+L13</f>
         <v>19309</v>
       </c>
-    </row>
-    <row r="54" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M53" s="14"/>
+      <c r="N53" s="14"/>
+      <c r="O53" s="14"/>
+      <c r="P53" s="14"/>
+      <c r="Q53" s="14"/>
+    </row>
+    <row r="54" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="13" t="s">
         <v>82</v>
       </c>
@@ -4691,7 +4837,7 @@
         <v>19309</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="13" t="s">
         <v>72</v>
       </c>
@@ -4699,7 +4845,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>73</v>
       </c>
@@ -4707,7 +4853,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>58</v>
       </c>
@@ -4715,7 +4861,7 @@
         <v>-602</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>74</v>
       </c>
@@ -4723,7 +4869,7 @@
         <v>-79</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>75</v>
       </c>
@@ -4731,7 +4877,7 @@
         <v>-3561</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>76</v>
       </c>
@@ -4739,7 +4885,7 @@
         <v>-978</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>77</v>
       </c>
@@ -4747,7 +4893,7 @@
         <v>-714</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>78</v>
       </c>
@@ -4755,7 +4901,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>79</v>
       </c>
@@ -4763,7 +4909,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>80</v>
       </c>
@@ -4771,7 +4917,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>81</v>
       </c>
@@ -4779,9 +4925,14 @@
         <f>+SUM(L54:L64)</f>
         <v>17666</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M65" s="14"/>
+      <c r="N65" s="14"/>
+      <c r="O65" s="14"/>
+      <c r="P65" s="14"/>
+      <c r="Q65" s="14"/>
+    </row>
+    <row r="66" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>84</v>
       </c>
@@ -4790,7 +4941,7 @@
         <v>-3791</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>85</v>
       </c>
@@ -4798,7 +4949,7 @@
         <v>-147</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>86</v>
       </c>
@@ -4807,15 +4958,20 @@
         <v>-407</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>74</v>
       </c>
       <c r="L70" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
+      <c r="P70" s="2"/>
+      <c r="Q70" s="2"/>
+    </row>
+    <row r="71" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>87</v>
       </c>
@@ -4824,8 +4980,8 @@
         <v>-4345</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>88</v>
       </c>
@@ -4833,7 +4989,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>89</v>
       </c>
@@ -4841,7 +4997,7 @@
         <v>-10998</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>90</v>
       </c>
@@ -4849,7 +5005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>91</v>
       </c>
@@ -4857,7 +5013,7 @@
         <v>-1680</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>92</v>
       </c>
@@ -4865,7 +5021,7 @@
         <v>-245</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>93</v>
       </c>
@@ -4873,7 +5029,7 @@
         <v>-29</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>74</v>
       </c>
@@ -4881,7 +5037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>94</v>
       </c>
@@ -4890,8 +5046,8 @@
         <v>-12748</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>95</v>
       </c>
@@ -4899,8 +5055,13 @@
         <f>+L68</f>
         <v>-147</v>
       </c>
-    </row>
-    <row r="83" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M82" s="14"/>
+      <c r="N82" s="14"/>
+      <c r="O82" s="14"/>
+      <c r="P82" s="14"/>
+      <c r="Q82" s="14"/>
+    </row>
+    <row r="83" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>96</v>
       </c>
@@ -4908,20 +5069,25 @@
         <f>+L82+L80+L74+L65</f>
         <v>-6227</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="M83" s="14"/>
+      <c r="N83" s="14"/>
+      <c r="O83" s="14"/>
+      <c r="P83" s="14"/>
+      <c r="Q83" s="14"/>
+    </row>
+    <row r="84" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
